--- a/01_Documents/04_ConfigurationTools/DiagnosticStack_ConfigurationTools.xlsx
+++ b/01_Documents/04_ConfigurationTools/DiagnosticStack_ConfigurationTools.xlsx
@@ -9,27 +9,28 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="831" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="00_Cover" sheetId="5" r:id="rId1"/>
-    <sheet name="01_DiagnosticSession" sheetId="2" r:id="rId2"/>
-    <sheet name="02_SecurityAccess" sheetId="6" r:id="rId3"/>
-    <sheet name="03_DiagnosticServicesList" sheetId="7" r:id="rId4"/>
-    <sheet name="04_DiagnosticService_0x10" sheetId="9" r:id="rId5"/>
-    <sheet name="04_DiagnosticService_0x11" sheetId="11" r:id="rId6"/>
-    <sheet name="04_DiagnosticService_0x14" sheetId="12" r:id="rId7"/>
+    <sheet name="00_ChangeLog" sheetId="13" r:id="rId2"/>
+    <sheet name="01_DiagnosticSession" sheetId="2" r:id="rId3"/>
+    <sheet name="02_SecurityAccess" sheetId="6" r:id="rId4"/>
+    <sheet name="03_DiagnosticServicesList" sheetId="7" r:id="rId5"/>
+    <sheet name="04_DiagnosticService_0x10" sheetId="9" r:id="rId6"/>
+    <sheet name="05_DiagnosticService_0x11" sheetId="11" r:id="rId7"/>
+    <sheet name="06_DiagnosticService_0x14" sheetId="12" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="A">#REF!</definedName>
     <definedName name="b">'[1]IBC_508（NEW）'!$F:$F</definedName>
     <definedName name="BBB">'[1]IBC_508（NEW）'!$F:$F</definedName>
     <definedName name="NNN">'[1]IBC_508（NEW）'!$F:$F</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'01_DiagnosticSession'!$A$1:$F$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'02_SecurityAccess'!$A$1:$F$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'01_DiagnosticSession'!$A$1:$F$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'02_SecurityAccess'!$A$1:$F$12</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="80">
   <si>
     <t>DefaultSession</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,11 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P2*Server_max
-(Resolution:10ms)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,10 +98,6 @@
   </si>
   <si>
     <t>Diagnostic Stack Confirguration Tools</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChanageLog</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -351,6 +343,54 @@
     <t>All Group</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>P2*Server_max
+(Resolution:1ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SupportNRC22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChanageLog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chanage Log of Diagnostic Stack Configuration Tools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReleaseNote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Draft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mingfen XIAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Sheet03&amp;04&amp;05&amp;06 add SupportNRC22 attributes
+2.add Sheet 00_ChanageLog
+3.Modify 00_Cover:
+  ChanageLog form modified to ReleaseNote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -359,7 +399,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,6 +501,20 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -708,7 +762,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -816,9 +870,6 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -868,14 +919,17 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -883,26 +937,17 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -928,13 +973,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1297,576 +1375,582 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G218"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="130" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="16" style="30" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.375" style="30" customWidth="1"/>
     <col min="5" max="5" width="16.5" style="30" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="17" customWidth="1"/>
-    <col min="7" max="7" width="14" style="17" customWidth="1"/>
-    <col min="8" max="256" width="9" style="17"/>
-    <col min="257" max="257" width="14.125" style="17" customWidth="1"/>
-    <col min="258" max="258" width="16.375" style="17" customWidth="1"/>
-    <col min="259" max="259" width="16" style="17" customWidth="1"/>
-    <col min="260" max="260" width="17.375" style="17" customWidth="1"/>
-    <col min="261" max="261" width="16.5" style="17" customWidth="1"/>
-    <col min="262" max="262" width="17.5" style="17" customWidth="1"/>
-    <col min="263" max="263" width="14" style="17" customWidth="1"/>
-    <col min="264" max="512" width="9" style="17"/>
-    <col min="513" max="513" width="14.125" style="17" customWidth="1"/>
-    <col min="514" max="514" width="16.375" style="17" customWidth="1"/>
-    <col min="515" max="515" width="16" style="17" customWidth="1"/>
-    <col min="516" max="516" width="17.375" style="17" customWidth="1"/>
-    <col min="517" max="517" width="16.5" style="17" customWidth="1"/>
-    <col min="518" max="518" width="17.5" style="17" customWidth="1"/>
-    <col min="519" max="519" width="14" style="17" customWidth="1"/>
-    <col min="520" max="768" width="9" style="17"/>
-    <col min="769" max="769" width="14.125" style="17" customWidth="1"/>
-    <col min="770" max="770" width="16.375" style="17" customWidth="1"/>
-    <col min="771" max="771" width="16" style="17" customWidth="1"/>
-    <col min="772" max="772" width="17.375" style="17" customWidth="1"/>
-    <col min="773" max="773" width="16.5" style="17" customWidth="1"/>
-    <col min="774" max="774" width="17.5" style="17" customWidth="1"/>
-    <col min="775" max="775" width="14" style="17" customWidth="1"/>
-    <col min="776" max="1024" width="9" style="17"/>
-    <col min="1025" max="1025" width="14.125" style="17" customWidth="1"/>
-    <col min="1026" max="1026" width="16.375" style="17" customWidth="1"/>
-    <col min="1027" max="1027" width="16" style="17" customWidth="1"/>
-    <col min="1028" max="1028" width="17.375" style="17" customWidth="1"/>
-    <col min="1029" max="1029" width="16.5" style="17" customWidth="1"/>
-    <col min="1030" max="1030" width="17.5" style="17" customWidth="1"/>
-    <col min="1031" max="1031" width="14" style="17" customWidth="1"/>
-    <col min="1032" max="1280" width="9" style="17"/>
-    <col min="1281" max="1281" width="14.125" style="17" customWidth="1"/>
-    <col min="1282" max="1282" width="16.375" style="17" customWidth="1"/>
-    <col min="1283" max="1283" width="16" style="17" customWidth="1"/>
-    <col min="1284" max="1284" width="17.375" style="17" customWidth="1"/>
-    <col min="1285" max="1285" width="16.5" style="17" customWidth="1"/>
-    <col min="1286" max="1286" width="17.5" style="17" customWidth="1"/>
-    <col min="1287" max="1287" width="14" style="17" customWidth="1"/>
-    <col min="1288" max="1536" width="9" style="17"/>
-    <col min="1537" max="1537" width="14.125" style="17" customWidth="1"/>
-    <col min="1538" max="1538" width="16.375" style="17" customWidth="1"/>
-    <col min="1539" max="1539" width="16" style="17" customWidth="1"/>
-    <col min="1540" max="1540" width="17.375" style="17" customWidth="1"/>
-    <col min="1541" max="1541" width="16.5" style="17" customWidth="1"/>
-    <col min="1542" max="1542" width="17.5" style="17" customWidth="1"/>
-    <col min="1543" max="1543" width="14" style="17" customWidth="1"/>
-    <col min="1544" max="1792" width="9" style="17"/>
-    <col min="1793" max="1793" width="14.125" style="17" customWidth="1"/>
-    <col min="1794" max="1794" width="16.375" style="17" customWidth="1"/>
-    <col min="1795" max="1795" width="16" style="17" customWidth="1"/>
-    <col min="1796" max="1796" width="17.375" style="17" customWidth="1"/>
-    <col min="1797" max="1797" width="16.5" style="17" customWidth="1"/>
-    <col min="1798" max="1798" width="17.5" style="17" customWidth="1"/>
-    <col min="1799" max="1799" width="14" style="17" customWidth="1"/>
-    <col min="1800" max="2048" width="9" style="17"/>
-    <col min="2049" max="2049" width="14.125" style="17" customWidth="1"/>
-    <col min="2050" max="2050" width="16.375" style="17" customWidth="1"/>
-    <col min="2051" max="2051" width="16" style="17" customWidth="1"/>
-    <col min="2052" max="2052" width="17.375" style="17" customWidth="1"/>
-    <col min="2053" max="2053" width="16.5" style="17" customWidth="1"/>
-    <col min="2054" max="2054" width="17.5" style="17" customWidth="1"/>
-    <col min="2055" max="2055" width="14" style="17" customWidth="1"/>
-    <col min="2056" max="2304" width="9" style="17"/>
-    <col min="2305" max="2305" width="14.125" style="17" customWidth="1"/>
-    <col min="2306" max="2306" width="16.375" style="17" customWidth="1"/>
-    <col min="2307" max="2307" width="16" style="17" customWidth="1"/>
-    <col min="2308" max="2308" width="17.375" style="17" customWidth="1"/>
-    <col min="2309" max="2309" width="16.5" style="17" customWidth="1"/>
-    <col min="2310" max="2310" width="17.5" style="17" customWidth="1"/>
-    <col min="2311" max="2311" width="14" style="17" customWidth="1"/>
-    <col min="2312" max="2560" width="9" style="17"/>
-    <col min="2561" max="2561" width="14.125" style="17" customWidth="1"/>
-    <col min="2562" max="2562" width="16.375" style="17" customWidth="1"/>
-    <col min="2563" max="2563" width="16" style="17" customWidth="1"/>
-    <col min="2564" max="2564" width="17.375" style="17" customWidth="1"/>
-    <col min="2565" max="2565" width="16.5" style="17" customWidth="1"/>
-    <col min="2566" max="2566" width="17.5" style="17" customWidth="1"/>
-    <col min="2567" max="2567" width="14" style="17" customWidth="1"/>
-    <col min="2568" max="2816" width="9" style="17"/>
-    <col min="2817" max="2817" width="14.125" style="17" customWidth="1"/>
-    <col min="2818" max="2818" width="16.375" style="17" customWidth="1"/>
-    <col min="2819" max="2819" width="16" style="17" customWidth="1"/>
-    <col min="2820" max="2820" width="17.375" style="17" customWidth="1"/>
-    <col min="2821" max="2821" width="16.5" style="17" customWidth="1"/>
-    <col min="2822" max="2822" width="17.5" style="17" customWidth="1"/>
-    <col min="2823" max="2823" width="14" style="17" customWidth="1"/>
-    <col min="2824" max="3072" width="9" style="17"/>
-    <col min="3073" max="3073" width="14.125" style="17" customWidth="1"/>
-    <col min="3074" max="3074" width="16.375" style="17" customWidth="1"/>
-    <col min="3075" max="3075" width="16" style="17" customWidth="1"/>
-    <col min="3076" max="3076" width="17.375" style="17" customWidth="1"/>
-    <col min="3077" max="3077" width="16.5" style="17" customWidth="1"/>
-    <col min="3078" max="3078" width="17.5" style="17" customWidth="1"/>
-    <col min="3079" max="3079" width="14" style="17" customWidth="1"/>
-    <col min="3080" max="3328" width="9" style="17"/>
-    <col min="3329" max="3329" width="14.125" style="17" customWidth="1"/>
-    <col min="3330" max="3330" width="16.375" style="17" customWidth="1"/>
-    <col min="3331" max="3331" width="16" style="17" customWidth="1"/>
-    <col min="3332" max="3332" width="17.375" style="17" customWidth="1"/>
-    <col min="3333" max="3333" width="16.5" style="17" customWidth="1"/>
-    <col min="3334" max="3334" width="17.5" style="17" customWidth="1"/>
-    <col min="3335" max="3335" width="14" style="17" customWidth="1"/>
-    <col min="3336" max="3584" width="9" style="17"/>
-    <col min="3585" max="3585" width="14.125" style="17" customWidth="1"/>
-    <col min="3586" max="3586" width="16.375" style="17" customWidth="1"/>
-    <col min="3587" max="3587" width="16" style="17" customWidth="1"/>
-    <col min="3588" max="3588" width="17.375" style="17" customWidth="1"/>
-    <col min="3589" max="3589" width="16.5" style="17" customWidth="1"/>
-    <col min="3590" max="3590" width="17.5" style="17" customWidth="1"/>
-    <col min="3591" max="3591" width="14" style="17" customWidth="1"/>
-    <col min="3592" max="3840" width="9" style="17"/>
-    <col min="3841" max="3841" width="14.125" style="17" customWidth="1"/>
-    <col min="3842" max="3842" width="16.375" style="17" customWidth="1"/>
-    <col min="3843" max="3843" width="16" style="17" customWidth="1"/>
-    <col min="3844" max="3844" width="17.375" style="17" customWidth="1"/>
-    <col min="3845" max="3845" width="16.5" style="17" customWidth="1"/>
-    <col min="3846" max="3846" width="17.5" style="17" customWidth="1"/>
-    <col min="3847" max="3847" width="14" style="17" customWidth="1"/>
-    <col min="3848" max="4096" width="9" style="17"/>
-    <col min="4097" max="4097" width="14.125" style="17" customWidth="1"/>
-    <col min="4098" max="4098" width="16.375" style="17" customWidth="1"/>
-    <col min="4099" max="4099" width="16" style="17" customWidth="1"/>
-    <col min="4100" max="4100" width="17.375" style="17" customWidth="1"/>
-    <col min="4101" max="4101" width="16.5" style="17" customWidth="1"/>
-    <col min="4102" max="4102" width="17.5" style="17" customWidth="1"/>
-    <col min="4103" max="4103" width="14" style="17" customWidth="1"/>
-    <col min="4104" max="4352" width="9" style="17"/>
-    <col min="4353" max="4353" width="14.125" style="17" customWidth="1"/>
-    <col min="4354" max="4354" width="16.375" style="17" customWidth="1"/>
-    <col min="4355" max="4355" width="16" style="17" customWidth="1"/>
-    <col min="4356" max="4356" width="17.375" style="17" customWidth="1"/>
-    <col min="4357" max="4357" width="16.5" style="17" customWidth="1"/>
-    <col min="4358" max="4358" width="17.5" style="17" customWidth="1"/>
-    <col min="4359" max="4359" width="14" style="17" customWidth="1"/>
-    <col min="4360" max="4608" width="9" style="17"/>
-    <col min="4609" max="4609" width="14.125" style="17" customWidth="1"/>
-    <col min="4610" max="4610" width="16.375" style="17" customWidth="1"/>
-    <col min="4611" max="4611" width="16" style="17" customWidth="1"/>
-    <col min="4612" max="4612" width="17.375" style="17" customWidth="1"/>
-    <col min="4613" max="4613" width="16.5" style="17" customWidth="1"/>
-    <col min="4614" max="4614" width="17.5" style="17" customWidth="1"/>
-    <col min="4615" max="4615" width="14" style="17" customWidth="1"/>
-    <col min="4616" max="4864" width="9" style="17"/>
-    <col min="4865" max="4865" width="14.125" style="17" customWidth="1"/>
-    <col min="4866" max="4866" width="16.375" style="17" customWidth="1"/>
-    <col min="4867" max="4867" width="16" style="17" customWidth="1"/>
-    <col min="4868" max="4868" width="17.375" style="17" customWidth="1"/>
-    <col min="4869" max="4869" width="16.5" style="17" customWidth="1"/>
-    <col min="4870" max="4870" width="17.5" style="17" customWidth="1"/>
-    <col min="4871" max="4871" width="14" style="17" customWidth="1"/>
-    <col min="4872" max="5120" width="9" style="17"/>
-    <col min="5121" max="5121" width="14.125" style="17" customWidth="1"/>
-    <col min="5122" max="5122" width="16.375" style="17" customWidth="1"/>
-    <col min="5123" max="5123" width="16" style="17" customWidth="1"/>
-    <col min="5124" max="5124" width="17.375" style="17" customWidth="1"/>
-    <col min="5125" max="5125" width="16.5" style="17" customWidth="1"/>
-    <col min="5126" max="5126" width="17.5" style="17" customWidth="1"/>
-    <col min="5127" max="5127" width="14" style="17" customWidth="1"/>
-    <col min="5128" max="5376" width="9" style="17"/>
-    <col min="5377" max="5377" width="14.125" style="17" customWidth="1"/>
-    <col min="5378" max="5378" width="16.375" style="17" customWidth="1"/>
-    <col min="5379" max="5379" width="16" style="17" customWidth="1"/>
-    <col min="5380" max="5380" width="17.375" style="17" customWidth="1"/>
-    <col min="5381" max="5381" width="16.5" style="17" customWidth="1"/>
-    <col min="5382" max="5382" width="17.5" style="17" customWidth="1"/>
-    <col min="5383" max="5383" width="14" style="17" customWidth="1"/>
-    <col min="5384" max="5632" width="9" style="17"/>
-    <col min="5633" max="5633" width="14.125" style="17" customWidth="1"/>
-    <col min="5634" max="5634" width="16.375" style="17" customWidth="1"/>
-    <col min="5635" max="5635" width="16" style="17" customWidth="1"/>
-    <col min="5636" max="5636" width="17.375" style="17" customWidth="1"/>
-    <col min="5637" max="5637" width="16.5" style="17" customWidth="1"/>
-    <col min="5638" max="5638" width="17.5" style="17" customWidth="1"/>
-    <col min="5639" max="5639" width="14" style="17" customWidth="1"/>
-    <col min="5640" max="5888" width="9" style="17"/>
-    <col min="5889" max="5889" width="14.125" style="17" customWidth="1"/>
-    <col min="5890" max="5890" width="16.375" style="17" customWidth="1"/>
-    <col min="5891" max="5891" width="16" style="17" customWidth="1"/>
-    <col min="5892" max="5892" width="17.375" style="17" customWidth="1"/>
-    <col min="5893" max="5893" width="16.5" style="17" customWidth="1"/>
-    <col min="5894" max="5894" width="17.5" style="17" customWidth="1"/>
-    <col min="5895" max="5895" width="14" style="17" customWidth="1"/>
-    <col min="5896" max="6144" width="9" style="17"/>
-    <col min="6145" max="6145" width="14.125" style="17" customWidth="1"/>
-    <col min="6146" max="6146" width="16.375" style="17" customWidth="1"/>
-    <col min="6147" max="6147" width="16" style="17" customWidth="1"/>
-    <col min="6148" max="6148" width="17.375" style="17" customWidth="1"/>
-    <col min="6149" max="6149" width="16.5" style="17" customWidth="1"/>
-    <col min="6150" max="6150" width="17.5" style="17" customWidth="1"/>
-    <col min="6151" max="6151" width="14" style="17" customWidth="1"/>
-    <col min="6152" max="6400" width="9" style="17"/>
-    <col min="6401" max="6401" width="14.125" style="17" customWidth="1"/>
-    <col min="6402" max="6402" width="16.375" style="17" customWidth="1"/>
-    <col min="6403" max="6403" width="16" style="17" customWidth="1"/>
-    <col min="6404" max="6404" width="17.375" style="17" customWidth="1"/>
-    <col min="6405" max="6405" width="16.5" style="17" customWidth="1"/>
-    <col min="6406" max="6406" width="17.5" style="17" customWidth="1"/>
-    <col min="6407" max="6407" width="14" style="17" customWidth="1"/>
-    <col min="6408" max="6656" width="9" style="17"/>
-    <col min="6657" max="6657" width="14.125" style="17" customWidth="1"/>
-    <col min="6658" max="6658" width="16.375" style="17" customWidth="1"/>
-    <col min="6659" max="6659" width="16" style="17" customWidth="1"/>
-    <col min="6660" max="6660" width="17.375" style="17" customWidth="1"/>
-    <col min="6661" max="6661" width="16.5" style="17" customWidth="1"/>
-    <col min="6662" max="6662" width="17.5" style="17" customWidth="1"/>
-    <col min="6663" max="6663" width="14" style="17" customWidth="1"/>
-    <col min="6664" max="6912" width="9" style="17"/>
-    <col min="6913" max="6913" width="14.125" style="17" customWidth="1"/>
-    <col min="6914" max="6914" width="16.375" style="17" customWidth="1"/>
-    <col min="6915" max="6915" width="16" style="17" customWidth="1"/>
-    <col min="6916" max="6916" width="17.375" style="17" customWidth="1"/>
-    <col min="6917" max="6917" width="16.5" style="17" customWidth="1"/>
-    <col min="6918" max="6918" width="17.5" style="17" customWidth="1"/>
-    <col min="6919" max="6919" width="14" style="17" customWidth="1"/>
-    <col min="6920" max="7168" width="9" style="17"/>
-    <col min="7169" max="7169" width="14.125" style="17" customWidth="1"/>
-    <col min="7170" max="7170" width="16.375" style="17" customWidth="1"/>
-    <col min="7171" max="7171" width="16" style="17" customWidth="1"/>
-    <col min="7172" max="7172" width="17.375" style="17" customWidth="1"/>
-    <col min="7173" max="7173" width="16.5" style="17" customWidth="1"/>
-    <col min="7174" max="7174" width="17.5" style="17" customWidth="1"/>
-    <col min="7175" max="7175" width="14" style="17" customWidth="1"/>
-    <col min="7176" max="7424" width="9" style="17"/>
-    <col min="7425" max="7425" width="14.125" style="17" customWidth="1"/>
-    <col min="7426" max="7426" width="16.375" style="17" customWidth="1"/>
-    <col min="7427" max="7427" width="16" style="17" customWidth="1"/>
-    <col min="7428" max="7428" width="17.375" style="17" customWidth="1"/>
-    <col min="7429" max="7429" width="16.5" style="17" customWidth="1"/>
-    <col min="7430" max="7430" width="17.5" style="17" customWidth="1"/>
-    <col min="7431" max="7431" width="14" style="17" customWidth="1"/>
-    <col min="7432" max="7680" width="9" style="17"/>
-    <col min="7681" max="7681" width="14.125" style="17" customWidth="1"/>
-    <col min="7682" max="7682" width="16.375" style="17" customWidth="1"/>
-    <col min="7683" max="7683" width="16" style="17" customWidth="1"/>
-    <col min="7684" max="7684" width="17.375" style="17" customWidth="1"/>
-    <col min="7685" max="7685" width="16.5" style="17" customWidth="1"/>
-    <col min="7686" max="7686" width="17.5" style="17" customWidth="1"/>
-    <col min="7687" max="7687" width="14" style="17" customWidth="1"/>
-    <col min="7688" max="7936" width="9" style="17"/>
-    <col min="7937" max="7937" width="14.125" style="17" customWidth="1"/>
-    <col min="7938" max="7938" width="16.375" style="17" customWidth="1"/>
-    <col min="7939" max="7939" width="16" style="17" customWidth="1"/>
-    <col min="7940" max="7940" width="17.375" style="17" customWidth="1"/>
-    <col min="7941" max="7941" width="16.5" style="17" customWidth="1"/>
-    <col min="7942" max="7942" width="17.5" style="17" customWidth="1"/>
-    <col min="7943" max="7943" width="14" style="17" customWidth="1"/>
-    <col min="7944" max="8192" width="9" style="17"/>
-    <col min="8193" max="8193" width="14.125" style="17" customWidth="1"/>
-    <col min="8194" max="8194" width="16.375" style="17" customWidth="1"/>
-    <col min="8195" max="8195" width="16" style="17" customWidth="1"/>
-    <col min="8196" max="8196" width="17.375" style="17" customWidth="1"/>
-    <col min="8197" max="8197" width="16.5" style="17" customWidth="1"/>
-    <col min="8198" max="8198" width="17.5" style="17" customWidth="1"/>
-    <col min="8199" max="8199" width="14" style="17" customWidth="1"/>
-    <col min="8200" max="8448" width="9" style="17"/>
-    <col min="8449" max="8449" width="14.125" style="17" customWidth="1"/>
-    <col min="8450" max="8450" width="16.375" style="17" customWidth="1"/>
-    <col min="8451" max="8451" width="16" style="17" customWidth="1"/>
-    <col min="8452" max="8452" width="17.375" style="17" customWidth="1"/>
-    <col min="8453" max="8453" width="16.5" style="17" customWidth="1"/>
-    <col min="8454" max="8454" width="17.5" style="17" customWidth="1"/>
-    <col min="8455" max="8455" width="14" style="17" customWidth="1"/>
-    <col min="8456" max="8704" width="9" style="17"/>
-    <col min="8705" max="8705" width="14.125" style="17" customWidth="1"/>
-    <col min="8706" max="8706" width="16.375" style="17" customWidth="1"/>
-    <col min="8707" max="8707" width="16" style="17" customWidth="1"/>
-    <col min="8708" max="8708" width="17.375" style="17" customWidth="1"/>
-    <col min="8709" max="8709" width="16.5" style="17" customWidth="1"/>
-    <col min="8710" max="8710" width="17.5" style="17" customWidth="1"/>
-    <col min="8711" max="8711" width="14" style="17" customWidth="1"/>
-    <col min="8712" max="8960" width="9" style="17"/>
-    <col min="8961" max="8961" width="14.125" style="17" customWidth="1"/>
-    <col min="8962" max="8962" width="16.375" style="17" customWidth="1"/>
-    <col min="8963" max="8963" width="16" style="17" customWidth="1"/>
-    <col min="8964" max="8964" width="17.375" style="17" customWidth="1"/>
-    <col min="8965" max="8965" width="16.5" style="17" customWidth="1"/>
-    <col min="8966" max="8966" width="17.5" style="17" customWidth="1"/>
-    <col min="8967" max="8967" width="14" style="17" customWidth="1"/>
-    <col min="8968" max="9216" width="9" style="17"/>
-    <col min="9217" max="9217" width="14.125" style="17" customWidth="1"/>
-    <col min="9218" max="9218" width="16.375" style="17" customWidth="1"/>
-    <col min="9219" max="9219" width="16" style="17" customWidth="1"/>
-    <col min="9220" max="9220" width="17.375" style="17" customWidth="1"/>
-    <col min="9221" max="9221" width="16.5" style="17" customWidth="1"/>
-    <col min="9222" max="9222" width="17.5" style="17" customWidth="1"/>
-    <col min="9223" max="9223" width="14" style="17" customWidth="1"/>
-    <col min="9224" max="9472" width="9" style="17"/>
-    <col min="9473" max="9473" width="14.125" style="17" customWidth="1"/>
-    <col min="9474" max="9474" width="16.375" style="17" customWidth="1"/>
-    <col min="9475" max="9475" width="16" style="17" customWidth="1"/>
-    <col min="9476" max="9476" width="17.375" style="17" customWidth="1"/>
-    <col min="9477" max="9477" width="16.5" style="17" customWidth="1"/>
-    <col min="9478" max="9478" width="17.5" style="17" customWidth="1"/>
-    <col min="9479" max="9479" width="14" style="17" customWidth="1"/>
-    <col min="9480" max="9728" width="9" style="17"/>
-    <col min="9729" max="9729" width="14.125" style="17" customWidth="1"/>
-    <col min="9730" max="9730" width="16.375" style="17" customWidth="1"/>
-    <col min="9731" max="9731" width="16" style="17" customWidth="1"/>
-    <col min="9732" max="9732" width="17.375" style="17" customWidth="1"/>
-    <col min="9733" max="9733" width="16.5" style="17" customWidth="1"/>
-    <col min="9734" max="9734" width="17.5" style="17" customWidth="1"/>
-    <col min="9735" max="9735" width="14" style="17" customWidth="1"/>
-    <col min="9736" max="9984" width="9" style="17"/>
-    <col min="9985" max="9985" width="14.125" style="17" customWidth="1"/>
-    <col min="9986" max="9986" width="16.375" style="17" customWidth="1"/>
-    <col min="9987" max="9987" width="16" style="17" customWidth="1"/>
-    <col min="9988" max="9988" width="17.375" style="17" customWidth="1"/>
-    <col min="9989" max="9989" width="16.5" style="17" customWidth="1"/>
-    <col min="9990" max="9990" width="17.5" style="17" customWidth="1"/>
-    <col min="9991" max="9991" width="14" style="17" customWidth="1"/>
-    <col min="9992" max="10240" width="9" style="17"/>
-    <col min="10241" max="10241" width="14.125" style="17" customWidth="1"/>
-    <col min="10242" max="10242" width="16.375" style="17" customWidth="1"/>
-    <col min="10243" max="10243" width="16" style="17" customWidth="1"/>
-    <col min="10244" max="10244" width="17.375" style="17" customWidth="1"/>
-    <col min="10245" max="10245" width="16.5" style="17" customWidth="1"/>
-    <col min="10246" max="10246" width="17.5" style="17" customWidth="1"/>
-    <col min="10247" max="10247" width="14" style="17" customWidth="1"/>
-    <col min="10248" max="10496" width="9" style="17"/>
-    <col min="10497" max="10497" width="14.125" style="17" customWidth="1"/>
-    <col min="10498" max="10498" width="16.375" style="17" customWidth="1"/>
-    <col min="10499" max="10499" width="16" style="17" customWidth="1"/>
-    <col min="10500" max="10500" width="17.375" style="17" customWidth="1"/>
-    <col min="10501" max="10501" width="16.5" style="17" customWidth="1"/>
-    <col min="10502" max="10502" width="17.5" style="17" customWidth="1"/>
-    <col min="10503" max="10503" width="14" style="17" customWidth="1"/>
-    <col min="10504" max="10752" width="9" style="17"/>
-    <col min="10753" max="10753" width="14.125" style="17" customWidth="1"/>
-    <col min="10754" max="10754" width="16.375" style="17" customWidth="1"/>
-    <col min="10755" max="10755" width="16" style="17" customWidth="1"/>
-    <col min="10756" max="10756" width="17.375" style="17" customWidth="1"/>
-    <col min="10757" max="10757" width="16.5" style="17" customWidth="1"/>
-    <col min="10758" max="10758" width="17.5" style="17" customWidth="1"/>
-    <col min="10759" max="10759" width="14" style="17" customWidth="1"/>
-    <col min="10760" max="11008" width="9" style="17"/>
-    <col min="11009" max="11009" width="14.125" style="17" customWidth="1"/>
-    <col min="11010" max="11010" width="16.375" style="17" customWidth="1"/>
-    <col min="11011" max="11011" width="16" style="17" customWidth="1"/>
-    <col min="11012" max="11012" width="17.375" style="17" customWidth="1"/>
-    <col min="11013" max="11013" width="16.5" style="17" customWidth="1"/>
-    <col min="11014" max="11014" width="17.5" style="17" customWidth="1"/>
-    <col min="11015" max="11015" width="14" style="17" customWidth="1"/>
-    <col min="11016" max="11264" width="9" style="17"/>
-    <col min="11265" max="11265" width="14.125" style="17" customWidth="1"/>
-    <col min="11266" max="11266" width="16.375" style="17" customWidth="1"/>
-    <col min="11267" max="11267" width="16" style="17" customWidth="1"/>
-    <col min="11268" max="11268" width="17.375" style="17" customWidth="1"/>
-    <col min="11269" max="11269" width="16.5" style="17" customWidth="1"/>
-    <col min="11270" max="11270" width="17.5" style="17" customWidth="1"/>
-    <col min="11271" max="11271" width="14" style="17" customWidth="1"/>
-    <col min="11272" max="11520" width="9" style="17"/>
-    <col min="11521" max="11521" width="14.125" style="17" customWidth="1"/>
-    <col min="11522" max="11522" width="16.375" style="17" customWidth="1"/>
-    <col min="11523" max="11523" width="16" style="17" customWidth="1"/>
-    <col min="11524" max="11524" width="17.375" style="17" customWidth="1"/>
-    <col min="11525" max="11525" width="16.5" style="17" customWidth="1"/>
-    <col min="11526" max="11526" width="17.5" style="17" customWidth="1"/>
-    <col min="11527" max="11527" width="14" style="17" customWidth="1"/>
-    <col min="11528" max="11776" width="9" style="17"/>
-    <col min="11777" max="11777" width="14.125" style="17" customWidth="1"/>
-    <col min="11778" max="11778" width="16.375" style="17" customWidth="1"/>
-    <col min="11779" max="11779" width="16" style="17" customWidth="1"/>
-    <col min="11780" max="11780" width="17.375" style="17" customWidth="1"/>
-    <col min="11781" max="11781" width="16.5" style="17" customWidth="1"/>
-    <col min="11782" max="11782" width="17.5" style="17" customWidth="1"/>
-    <col min="11783" max="11783" width="14" style="17" customWidth="1"/>
-    <col min="11784" max="12032" width="9" style="17"/>
-    <col min="12033" max="12033" width="14.125" style="17" customWidth="1"/>
-    <col min="12034" max="12034" width="16.375" style="17" customWidth="1"/>
-    <col min="12035" max="12035" width="16" style="17" customWidth="1"/>
-    <col min="12036" max="12036" width="17.375" style="17" customWidth="1"/>
-    <col min="12037" max="12037" width="16.5" style="17" customWidth="1"/>
-    <col min="12038" max="12038" width="17.5" style="17" customWidth="1"/>
-    <col min="12039" max="12039" width="14" style="17" customWidth="1"/>
-    <col min="12040" max="12288" width="9" style="17"/>
-    <col min="12289" max="12289" width="14.125" style="17" customWidth="1"/>
-    <col min="12290" max="12290" width="16.375" style="17" customWidth="1"/>
-    <col min="12291" max="12291" width="16" style="17" customWidth="1"/>
-    <col min="12292" max="12292" width="17.375" style="17" customWidth="1"/>
-    <col min="12293" max="12293" width="16.5" style="17" customWidth="1"/>
-    <col min="12294" max="12294" width="17.5" style="17" customWidth="1"/>
-    <col min="12295" max="12295" width="14" style="17" customWidth="1"/>
-    <col min="12296" max="12544" width="9" style="17"/>
-    <col min="12545" max="12545" width="14.125" style="17" customWidth="1"/>
-    <col min="12546" max="12546" width="16.375" style="17" customWidth="1"/>
-    <col min="12547" max="12547" width="16" style="17" customWidth="1"/>
-    <col min="12548" max="12548" width="17.375" style="17" customWidth="1"/>
-    <col min="12549" max="12549" width="16.5" style="17" customWidth="1"/>
-    <col min="12550" max="12550" width="17.5" style="17" customWidth="1"/>
-    <col min="12551" max="12551" width="14" style="17" customWidth="1"/>
-    <col min="12552" max="12800" width="9" style="17"/>
-    <col min="12801" max="12801" width="14.125" style="17" customWidth="1"/>
-    <col min="12802" max="12802" width="16.375" style="17" customWidth="1"/>
-    <col min="12803" max="12803" width="16" style="17" customWidth="1"/>
-    <col min="12804" max="12804" width="17.375" style="17" customWidth="1"/>
-    <col min="12805" max="12805" width="16.5" style="17" customWidth="1"/>
-    <col min="12806" max="12806" width="17.5" style="17" customWidth="1"/>
-    <col min="12807" max="12807" width="14" style="17" customWidth="1"/>
-    <col min="12808" max="13056" width="9" style="17"/>
-    <col min="13057" max="13057" width="14.125" style="17" customWidth="1"/>
-    <col min="13058" max="13058" width="16.375" style="17" customWidth="1"/>
-    <col min="13059" max="13059" width="16" style="17" customWidth="1"/>
-    <col min="13060" max="13060" width="17.375" style="17" customWidth="1"/>
-    <col min="13061" max="13061" width="16.5" style="17" customWidth="1"/>
-    <col min="13062" max="13062" width="17.5" style="17" customWidth="1"/>
-    <col min="13063" max="13063" width="14" style="17" customWidth="1"/>
-    <col min="13064" max="13312" width="9" style="17"/>
-    <col min="13313" max="13313" width="14.125" style="17" customWidth="1"/>
-    <col min="13314" max="13314" width="16.375" style="17" customWidth="1"/>
-    <col min="13315" max="13315" width="16" style="17" customWidth="1"/>
-    <col min="13316" max="13316" width="17.375" style="17" customWidth="1"/>
-    <col min="13317" max="13317" width="16.5" style="17" customWidth="1"/>
-    <col min="13318" max="13318" width="17.5" style="17" customWidth="1"/>
-    <col min="13319" max="13319" width="14" style="17" customWidth="1"/>
-    <col min="13320" max="13568" width="9" style="17"/>
-    <col min="13569" max="13569" width="14.125" style="17" customWidth="1"/>
-    <col min="13570" max="13570" width="16.375" style="17" customWidth="1"/>
-    <col min="13571" max="13571" width="16" style="17" customWidth="1"/>
-    <col min="13572" max="13572" width="17.375" style="17" customWidth="1"/>
-    <col min="13573" max="13573" width="16.5" style="17" customWidth="1"/>
-    <col min="13574" max="13574" width="17.5" style="17" customWidth="1"/>
-    <col min="13575" max="13575" width="14" style="17" customWidth="1"/>
-    <col min="13576" max="13824" width="9" style="17"/>
-    <col min="13825" max="13825" width="14.125" style="17" customWidth="1"/>
-    <col min="13826" max="13826" width="16.375" style="17" customWidth="1"/>
-    <col min="13827" max="13827" width="16" style="17" customWidth="1"/>
-    <col min="13828" max="13828" width="17.375" style="17" customWidth="1"/>
-    <col min="13829" max="13829" width="16.5" style="17" customWidth="1"/>
-    <col min="13830" max="13830" width="17.5" style="17" customWidth="1"/>
-    <col min="13831" max="13831" width="14" style="17" customWidth="1"/>
-    <col min="13832" max="14080" width="9" style="17"/>
-    <col min="14081" max="14081" width="14.125" style="17" customWidth="1"/>
-    <col min="14082" max="14082" width="16.375" style="17" customWidth="1"/>
-    <col min="14083" max="14083" width="16" style="17" customWidth="1"/>
-    <col min="14084" max="14084" width="17.375" style="17" customWidth="1"/>
-    <col min="14085" max="14085" width="16.5" style="17" customWidth="1"/>
-    <col min="14086" max="14086" width="17.5" style="17" customWidth="1"/>
-    <col min="14087" max="14087" width="14" style="17" customWidth="1"/>
-    <col min="14088" max="14336" width="9" style="17"/>
-    <col min="14337" max="14337" width="14.125" style="17" customWidth="1"/>
-    <col min="14338" max="14338" width="16.375" style="17" customWidth="1"/>
-    <col min="14339" max="14339" width="16" style="17" customWidth="1"/>
-    <col min="14340" max="14340" width="17.375" style="17" customWidth="1"/>
-    <col min="14341" max="14341" width="16.5" style="17" customWidth="1"/>
-    <col min="14342" max="14342" width="17.5" style="17" customWidth="1"/>
-    <col min="14343" max="14343" width="14" style="17" customWidth="1"/>
-    <col min="14344" max="14592" width="9" style="17"/>
-    <col min="14593" max="14593" width="14.125" style="17" customWidth="1"/>
-    <col min="14594" max="14594" width="16.375" style="17" customWidth="1"/>
-    <col min="14595" max="14595" width="16" style="17" customWidth="1"/>
-    <col min="14596" max="14596" width="17.375" style="17" customWidth="1"/>
-    <col min="14597" max="14597" width="16.5" style="17" customWidth="1"/>
-    <col min="14598" max="14598" width="17.5" style="17" customWidth="1"/>
-    <col min="14599" max="14599" width="14" style="17" customWidth="1"/>
-    <col min="14600" max="14848" width="9" style="17"/>
-    <col min="14849" max="14849" width="14.125" style="17" customWidth="1"/>
-    <col min="14850" max="14850" width="16.375" style="17" customWidth="1"/>
-    <col min="14851" max="14851" width="16" style="17" customWidth="1"/>
-    <col min="14852" max="14852" width="17.375" style="17" customWidth="1"/>
-    <col min="14853" max="14853" width="16.5" style="17" customWidth="1"/>
-    <col min="14854" max="14854" width="17.5" style="17" customWidth="1"/>
-    <col min="14855" max="14855" width="14" style="17" customWidth="1"/>
-    <col min="14856" max="15104" width="9" style="17"/>
-    <col min="15105" max="15105" width="14.125" style="17" customWidth="1"/>
-    <col min="15106" max="15106" width="16.375" style="17" customWidth="1"/>
-    <col min="15107" max="15107" width="16" style="17" customWidth="1"/>
-    <col min="15108" max="15108" width="17.375" style="17" customWidth="1"/>
-    <col min="15109" max="15109" width="16.5" style="17" customWidth="1"/>
-    <col min="15110" max="15110" width="17.5" style="17" customWidth="1"/>
-    <col min="15111" max="15111" width="14" style="17" customWidth="1"/>
-    <col min="15112" max="15360" width="9" style="17"/>
-    <col min="15361" max="15361" width="14.125" style="17" customWidth="1"/>
-    <col min="15362" max="15362" width="16.375" style="17" customWidth="1"/>
-    <col min="15363" max="15363" width="16" style="17" customWidth="1"/>
-    <col min="15364" max="15364" width="17.375" style="17" customWidth="1"/>
-    <col min="15365" max="15365" width="16.5" style="17" customWidth="1"/>
-    <col min="15366" max="15366" width="17.5" style="17" customWidth="1"/>
-    <col min="15367" max="15367" width="14" style="17" customWidth="1"/>
-    <col min="15368" max="15616" width="9" style="17"/>
-    <col min="15617" max="15617" width="14.125" style="17" customWidth="1"/>
-    <col min="15618" max="15618" width="16.375" style="17" customWidth="1"/>
-    <col min="15619" max="15619" width="16" style="17" customWidth="1"/>
-    <col min="15620" max="15620" width="17.375" style="17" customWidth="1"/>
-    <col min="15621" max="15621" width="16.5" style="17" customWidth="1"/>
-    <col min="15622" max="15622" width="17.5" style="17" customWidth="1"/>
-    <col min="15623" max="15623" width="14" style="17" customWidth="1"/>
-    <col min="15624" max="15872" width="9" style="17"/>
-    <col min="15873" max="15873" width="14.125" style="17" customWidth="1"/>
-    <col min="15874" max="15874" width="16.375" style="17" customWidth="1"/>
-    <col min="15875" max="15875" width="16" style="17" customWidth="1"/>
-    <col min="15876" max="15876" width="17.375" style="17" customWidth="1"/>
-    <col min="15877" max="15877" width="16.5" style="17" customWidth="1"/>
-    <col min="15878" max="15878" width="17.5" style="17" customWidth="1"/>
-    <col min="15879" max="15879" width="14" style="17" customWidth="1"/>
-    <col min="15880" max="16128" width="9" style="17"/>
-    <col min="16129" max="16129" width="14.125" style="17" customWidth="1"/>
-    <col min="16130" max="16130" width="16.375" style="17" customWidth="1"/>
-    <col min="16131" max="16131" width="16" style="17" customWidth="1"/>
-    <col min="16132" max="16132" width="17.375" style="17" customWidth="1"/>
-    <col min="16133" max="16133" width="16.5" style="17" customWidth="1"/>
-    <col min="16134" max="16134" width="17.5" style="17" customWidth="1"/>
-    <col min="16135" max="16135" width="14" style="17" customWidth="1"/>
-    <col min="16136" max="16384" width="9" style="17"/>
+    <col min="6" max="6" width="10.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="17" customWidth="1"/>
+    <col min="9" max="257" width="9" style="17"/>
+    <col min="258" max="258" width="14.125" style="17" customWidth="1"/>
+    <col min="259" max="259" width="16.375" style="17" customWidth="1"/>
+    <col min="260" max="260" width="16" style="17" customWidth="1"/>
+    <col min="261" max="261" width="17.375" style="17" customWidth="1"/>
+    <col min="262" max="262" width="16.5" style="17" customWidth="1"/>
+    <col min="263" max="263" width="17.5" style="17" customWidth="1"/>
+    <col min="264" max="264" width="14" style="17" customWidth="1"/>
+    <col min="265" max="513" width="9" style="17"/>
+    <col min="514" max="514" width="14.125" style="17" customWidth="1"/>
+    <col min="515" max="515" width="16.375" style="17" customWidth="1"/>
+    <col min="516" max="516" width="16" style="17" customWidth="1"/>
+    <col min="517" max="517" width="17.375" style="17" customWidth="1"/>
+    <col min="518" max="518" width="16.5" style="17" customWidth="1"/>
+    <col min="519" max="519" width="17.5" style="17" customWidth="1"/>
+    <col min="520" max="520" width="14" style="17" customWidth="1"/>
+    <col min="521" max="769" width="9" style="17"/>
+    <col min="770" max="770" width="14.125" style="17" customWidth="1"/>
+    <col min="771" max="771" width="16.375" style="17" customWidth="1"/>
+    <col min="772" max="772" width="16" style="17" customWidth="1"/>
+    <col min="773" max="773" width="17.375" style="17" customWidth="1"/>
+    <col min="774" max="774" width="16.5" style="17" customWidth="1"/>
+    <col min="775" max="775" width="17.5" style="17" customWidth="1"/>
+    <col min="776" max="776" width="14" style="17" customWidth="1"/>
+    <col min="777" max="1025" width="9" style="17"/>
+    <col min="1026" max="1026" width="14.125" style="17" customWidth="1"/>
+    <col min="1027" max="1027" width="16.375" style="17" customWidth="1"/>
+    <col min="1028" max="1028" width="16" style="17" customWidth="1"/>
+    <col min="1029" max="1029" width="17.375" style="17" customWidth="1"/>
+    <col min="1030" max="1030" width="16.5" style="17" customWidth="1"/>
+    <col min="1031" max="1031" width="17.5" style="17" customWidth="1"/>
+    <col min="1032" max="1032" width="14" style="17" customWidth="1"/>
+    <col min="1033" max="1281" width="9" style="17"/>
+    <col min="1282" max="1282" width="14.125" style="17" customWidth="1"/>
+    <col min="1283" max="1283" width="16.375" style="17" customWidth="1"/>
+    <col min="1284" max="1284" width="16" style="17" customWidth="1"/>
+    <col min="1285" max="1285" width="17.375" style="17" customWidth="1"/>
+    <col min="1286" max="1286" width="16.5" style="17" customWidth="1"/>
+    <col min="1287" max="1287" width="17.5" style="17" customWidth="1"/>
+    <col min="1288" max="1288" width="14" style="17" customWidth="1"/>
+    <col min="1289" max="1537" width="9" style="17"/>
+    <col min="1538" max="1538" width="14.125" style="17" customWidth="1"/>
+    <col min="1539" max="1539" width="16.375" style="17" customWidth="1"/>
+    <col min="1540" max="1540" width="16" style="17" customWidth="1"/>
+    <col min="1541" max="1541" width="17.375" style="17" customWidth="1"/>
+    <col min="1542" max="1542" width="16.5" style="17" customWidth="1"/>
+    <col min="1543" max="1543" width="17.5" style="17" customWidth="1"/>
+    <col min="1544" max="1544" width="14" style="17" customWidth="1"/>
+    <col min="1545" max="1793" width="9" style="17"/>
+    <col min="1794" max="1794" width="14.125" style="17" customWidth="1"/>
+    <col min="1795" max="1795" width="16.375" style="17" customWidth="1"/>
+    <col min="1796" max="1796" width="16" style="17" customWidth="1"/>
+    <col min="1797" max="1797" width="17.375" style="17" customWidth="1"/>
+    <col min="1798" max="1798" width="16.5" style="17" customWidth="1"/>
+    <col min="1799" max="1799" width="17.5" style="17" customWidth="1"/>
+    <col min="1800" max="1800" width="14" style="17" customWidth="1"/>
+    <col min="1801" max="2049" width="9" style="17"/>
+    <col min="2050" max="2050" width="14.125" style="17" customWidth="1"/>
+    <col min="2051" max="2051" width="16.375" style="17" customWidth="1"/>
+    <col min="2052" max="2052" width="16" style="17" customWidth="1"/>
+    <col min="2053" max="2053" width="17.375" style="17" customWidth="1"/>
+    <col min="2054" max="2054" width="16.5" style="17" customWidth="1"/>
+    <col min="2055" max="2055" width="17.5" style="17" customWidth="1"/>
+    <col min="2056" max="2056" width="14" style="17" customWidth="1"/>
+    <col min="2057" max="2305" width="9" style="17"/>
+    <col min="2306" max="2306" width="14.125" style="17" customWidth="1"/>
+    <col min="2307" max="2307" width="16.375" style="17" customWidth="1"/>
+    <col min="2308" max="2308" width="16" style="17" customWidth="1"/>
+    <col min="2309" max="2309" width="17.375" style="17" customWidth="1"/>
+    <col min="2310" max="2310" width="16.5" style="17" customWidth="1"/>
+    <col min="2311" max="2311" width="17.5" style="17" customWidth="1"/>
+    <col min="2312" max="2312" width="14" style="17" customWidth="1"/>
+    <col min="2313" max="2561" width="9" style="17"/>
+    <col min="2562" max="2562" width="14.125" style="17" customWidth="1"/>
+    <col min="2563" max="2563" width="16.375" style="17" customWidth="1"/>
+    <col min="2564" max="2564" width="16" style="17" customWidth="1"/>
+    <col min="2565" max="2565" width="17.375" style="17" customWidth="1"/>
+    <col min="2566" max="2566" width="16.5" style="17" customWidth="1"/>
+    <col min="2567" max="2567" width="17.5" style="17" customWidth="1"/>
+    <col min="2568" max="2568" width="14" style="17" customWidth="1"/>
+    <col min="2569" max="2817" width="9" style="17"/>
+    <col min="2818" max="2818" width="14.125" style="17" customWidth="1"/>
+    <col min="2819" max="2819" width="16.375" style="17" customWidth="1"/>
+    <col min="2820" max="2820" width="16" style="17" customWidth="1"/>
+    <col min="2821" max="2821" width="17.375" style="17" customWidth="1"/>
+    <col min="2822" max="2822" width="16.5" style="17" customWidth="1"/>
+    <col min="2823" max="2823" width="17.5" style="17" customWidth="1"/>
+    <col min="2824" max="2824" width="14" style="17" customWidth="1"/>
+    <col min="2825" max="3073" width="9" style="17"/>
+    <col min="3074" max="3074" width="14.125" style="17" customWidth="1"/>
+    <col min="3075" max="3075" width="16.375" style="17" customWidth="1"/>
+    <col min="3076" max="3076" width="16" style="17" customWidth="1"/>
+    <col min="3077" max="3077" width="17.375" style="17" customWidth="1"/>
+    <col min="3078" max="3078" width="16.5" style="17" customWidth="1"/>
+    <col min="3079" max="3079" width="17.5" style="17" customWidth="1"/>
+    <col min="3080" max="3080" width="14" style="17" customWidth="1"/>
+    <col min="3081" max="3329" width="9" style="17"/>
+    <col min="3330" max="3330" width="14.125" style="17" customWidth="1"/>
+    <col min="3331" max="3331" width="16.375" style="17" customWidth="1"/>
+    <col min="3332" max="3332" width="16" style="17" customWidth="1"/>
+    <col min="3333" max="3333" width="17.375" style="17" customWidth="1"/>
+    <col min="3334" max="3334" width="16.5" style="17" customWidth="1"/>
+    <col min="3335" max="3335" width="17.5" style="17" customWidth="1"/>
+    <col min="3336" max="3336" width="14" style="17" customWidth="1"/>
+    <col min="3337" max="3585" width="9" style="17"/>
+    <col min="3586" max="3586" width="14.125" style="17" customWidth="1"/>
+    <col min="3587" max="3587" width="16.375" style="17" customWidth="1"/>
+    <col min="3588" max="3588" width="16" style="17" customWidth="1"/>
+    <col min="3589" max="3589" width="17.375" style="17" customWidth="1"/>
+    <col min="3590" max="3590" width="16.5" style="17" customWidth="1"/>
+    <col min="3591" max="3591" width="17.5" style="17" customWidth="1"/>
+    <col min="3592" max="3592" width="14" style="17" customWidth="1"/>
+    <col min="3593" max="3841" width="9" style="17"/>
+    <col min="3842" max="3842" width="14.125" style="17" customWidth="1"/>
+    <col min="3843" max="3843" width="16.375" style="17" customWidth="1"/>
+    <col min="3844" max="3844" width="16" style="17" customWidth="1"/>
+    <col min="3845" max="3845" width="17.375" style="17" customWidth="1"/>
+    <col min="3846" max="3846" width="16.5" style="17" customWidth="1"/>
+    <col min="3847" max="3847" width="17.5" style="17" customWidth="1"/>
+    <col min="3848" max="3848" width="14" style="17" customWidth="1"/>
+    <col min="3849" max="4097" width="9" style="17"/>
+    <col min="4098" max="4098" width="14.125" style="17" customWidth="1"/>
+    <col min="4099" max="4099" width="16.375" style="17" customWidth="1"/>
+    <col min="4100" max="4100" width="16" style="17" customWidth="1"/>
+    <col min="4101" max="4101" width="17.375" style="17" customWidth="1"/>
+    <col min="4102" max="4102" width="16.5" style="17" customWidth="1"/>
+    <col min="4103" max="4103" width="17.5" style="17" customWidth="1"/>
+    <col min="4104" max="4104" width="14" style="17" customWidth="1"/>
+    <col min="4105" max="4353" width="9" style="17"/>
+    <col min="4354" max="4354" width="14.125" style="17" customWidth="1"/>
+    <col min="4355" max="4355" width="16.375" style="17" customWidth="1"/>
+    <col min="4356" max="4356" width="16" style="17" customWidth="1"/>
+    <col min="4357" max="4357" width="17.375" style="17" customWidth="1"/>
+    <col min="4358" max="4358" width="16.5" style="17" customWidth="1"/>
+    <col min="4359" max="4359" width="17.5" style="17" customWidth="1"/>
+    <col min="4360" max="4360" width="14" style="17" customWidth="1"/>
+    <col min="4361" max="4609" width="9" style="17"/>
+    <col min="4610" max="4610" width="14.125" style="17" customWidth="1"/>
+    <col min="4611" max="4611" width="16.375" style="17" customWidth="1"/>
+    <col min="4612" max="4612" width="16" style="17" customWidth="1"/>
+    <col min="4613" max="4613" width="17.375" style="17" customWidth="1"/>
+    <col min="4614" max="4614" width="16.5" style="17" customWidth="1"/>
+    <col min="4615" max="4615" width="17.5" style="17" customWidth="1"/>
+    <col min="4616" max="4616" width="14" style="17" customWidth="1"/>
+    <col min="4617" max="4865" width="9" style="17"/>
+    <col min="4866" max="4866" width="14.125" style="17" customWidth="1"/>
+    <col min="4867" max="4867" width="16.375" style="17" customWidth="1"/>
+    <col min="4868" max="4868" width="16" style="17" customWidth="1"/>
+    <col min="4869" max="4869" width="17.375" style="17" customWidth="1"/>
+    <col min="4870" max="4870" width="16.5" style="17" customWidth="1"/>
+    <col min="4871" max="4871" width="17.5" style="17" customWidth="1"/>
+    <col min="4872" max="4872" width="14" style="17" customWidth="1"/>
+    <col min="4873" max="5121" width="9" style="17"/>
+    <col min="5122" max="5122" width="14.125" style="17" customWidth="1"/>
+    <col min="5123" max="5123" width="16.375" style="17" customWidth="1"/>
+    <col min="5124" max="5124" width="16" style="17" customWidth="1"/>
+    <col min="5125" max="5125" width="17.375" style="17" customWidth="1"/>
+    <col min="5126" max="5126" width="16.5" style="17" customWidth="1"/>
+    <col min="5127" max="5127" width="17.5" style="17" customWidth="1"/>
+    <col min="5128" max="5128" width="14" style="17" customWidth="1"/>
+    <col min="5129" max="5377" width="9" style="17"/>
+    <col min="5378" max="5378" width="14.125" style="17" customWidth="1"/>
+    <col min="5379" max="5379" width="16.375" style="17" customWidth="1"/>
+    <col min="5380" max="5380" width="16" style="17" customWidth="1"/>
+    <col min="5381" max="5381" width="17.375" style="17" customWidth="1"/>
+    <col min="5382" max="5382" width="16.5" style="17" customWidth="1"/>
+    <col min="5383" max="5383" width="17.5" style="17" customWidth="1"/>
+    <col min="5384" max="5384" width="14" style="17" customWidth="1"/>
+    <col min="5385" max="5633" width="9" style="17"/>
+    <col min="5634" max="5634" width="14.125" style="17" customWidth="1"/>
+    <col min="5635" max="5635" width="16.375" style="17" customWidth="1"/>
+    <col min="5636" max="5636" width="16" style="17" customWidth="1"/>
+    <col min="5637" max="5637" width="17.375" style="17" customWidth="1"/>
+    <col min="5638" max="5638" width="16.5" style="17" customWidth="1"/>
+    <col min="5639" max="5639" width="17.5" style="17" customWidth="1"/>
+    <col min="5640" max="5640" width="14" style="17" customWidth="1"/>
+    <col min="5641" max="5889" width="9" style="17"/>
+    <col min="5890" max="5890" width="14.125" style="17" customWidth="1"/>
+    <col min="5891" max="5891" width="16.375" style="17" customWidth="1"/>
+    <col min="5892" max="5892" width="16" style="17" customWidth="1"/>
+    <col min="5893" max="5893" width="17.375" style="17" customWidth="1"/>
+    <col min="5894" max="5894" width="16.5" style="17" customWidth="1"/>
+    <col min="5895" max="5895" width="17.5" style="17" customWidth="1"/>
+    <col min="5896" max="5896" width="14" style="17" customWidth="1"/>
+    <col min="5897" max="6145" width="9" style="17"/>
+    <col min="6146" max="6146" width="14.125" style="17" customWidth="1"/>
+    <col min="6147" max="6147" width="16.375" style="17" customWidth="1"/>
+    <col min="6148" max="6148" width="16" style="17" customWidth="1"/>
+    <col min="6149" max="6149" width="17.375" style="17" customWidth="1"/>
+    <col min="6150" max="6150" width="16.5" style="17" customWidth="1"/>
+    <col min="6151" max="6151" width="17.5" style="17" customWidth="1"/>
+    <col min="6152" max="6152" width="14" style="17" customWidth="1"/>
+    <col min="6153" max="6401" width="9" style="17"/>
+    <col min="6402" max="6402" width="14.125" style="17" customWidth="1"/>
+    <col min="6403" max="6403" width="16.375" style="17" customWidth="1"/>
+    <col min="6404" max="6404" width="16" style="17" customWidth="1"/>
+    <col min="6405" max="6405" width="17.375" style="17" customWidth="1"/>
+    <col min="6406" max="6406" width="16.5" style="17" customWidth="1"/>
+    <col min="6407" max="6407" width="17.5" style="17" customWidth="1"/>
+    <col min="6408" max="6408" width="14" style="17" customWidth="1"/>
+    <col min="6409" max="6657" width="9" style="17"/>
+    <col min="6658" max="6658" width="14.125" style="17" customWidth="1"/>
+    <col min="6659" max="6659" width="16.375" style="17" customWidth="1"/>
+    <col min="6660" max="6660" width="16" style="17" customWidth="1"/>
+    <col min="6661" max="6661" width="17.375" style="17" customWidth="1"/>
+    <col min="6662" max="6662" width="16.5" style="17" customWidth="1"/>
+    <col min="6663" max="6663" width="17.5" style="17" customWidth="1"/>
+    <col min="6664" max="6664" width="14" style="17" customWidth="1"/>
+    <col min="6665" max="6913" width="9" style="17"/>
+    <col min="6914" max="6914" width="14.125" style="17" customWidth="1"/>
+    <col min="6915" max="6915" width="16.375" style="17" customWidth="1"/>
+    <col min="6916" max="6916" width="16" style="17" customWidth="1"/>
+    <col min="6917" max="6917" width="17.375" style="17" customWidth="1"/>
+    <col min="6918" max="6918" width="16.5" style="17" customWidth="1"/>
+    <col min="6919" max="6919" width="17.5" style="17" customWidth="1"/>
+    <col min="6920" max="6920" width="14" style="17" customWidth="1"/>
+    <col min="6921" max="7169" width="9" style="17"/>
+    <col min="7170" max="7170" width="14.125" style="17" customWidth="1"/>
+    <col min="7171" max="7171" width="16.375" style="17" customWidth="1"/>
+    <col min="7172" max="7172" width="16" style="17" customWidth="1"/>
+    <col min="7173" max="7173" width="17.375" style="17" customWidth="1"/>
+    <col min="7174" max="7174" width="16.5" style="17" customWidth="1"/>
+    <col min="7175" max="7175" width="17.5" style="17" customWidth="1"/>
+    <col min="7176" max="7176" width="14" style="17" customWidth="1"/>
+    <col min="7177" max="7425" width="9" style="17"/>
+    <col min="7426" max="7426" width="14.125" style="17" customWidth="1"/>
+    <col min="7427" max="7427" width="16.375" style="17" customWidth="1"/>
+    <col min="7428" max="7428" width="16" style="17" customWidth="1"/>
+    <col min="7429" max="7429" width="17.375" style="17" customWidth="1"/>
+    <col min="7430" max="7430" width="16.5" style="17" customWidth="1"/>
+    <col min="7431" max="7431" width="17.5" style="17" customWidth="1"/>
+    <col min="7432" max="7432" width="14" style="17" customWidth="1"/>
+    <col min="7433" max="7681" width="9" style="17"/>
+    <col min="7682" max="7682" width="14.125" style="17" customWidth="1"/>
+    <col min="7683" max="7683" width="16.375" style="17" customWidth="1"/>
+    <col min="7684" max="7684" width="16" style="17" customWidth="1"/>
+    <col min="7685" max="7685" width="17.375" style="17" customWidth="1"/>
+    <col min="7686" max="7686" width="16.5" style="17" customWidth="1"/>
+    <col min="7687" max="7687" width="17.5" style="17" customWidth="1"/>
+    <col min="7688" max="7688" width="14" style="17" customWidth="1"/>
+    <col min="7689" max="7937" width="9" style="17"/>
+    <col min="7938" max="7938" width="14.125" style="17" customWidth="1"/>
+    <col min="7939" max="7939" width="16.375" style="17" customWidth="1"/>
+    <col min="7940" max="7940" width="16" style="17" customWidth="1"/>
+    <col min="7941" max="7941" width="17.375" style="17" customWidth="1"/>
+    <col min="7942" max="7942" width="16.5" style="17" customWidth="1"/>
+    <col min="7943" max="7943" width="17.5" style="17" customWidth="1"/>
+    <col min="7944" max="7944" width="14" style="17" customWidth="1"/>
+    <col min="7945" max="8193" width="9" style="17"/>
+    <col min="8194" max="8194" width="14.125" style="17" customWidth="1"/>
+    <col min="8195" max="8195" width="16.375" style="17" customWidth="1"/>
+    <col min="8196" max="8196" width="16" style="17" customWidth="1"/>
+    <col min="8197" max="8197" width="17.375" style="17" customWidth="1"/>
+    <col min="8198" max="8198" width="16.5" style="17" customWidth="1"/>
+    <col min="8199" max="8199" width="17.5" style="17" customWidth="1"/>
+    <col min="8200" max="8200" width="14" style="17" customWidth="1"/>
+    <col min="8201" max="8449" width="9" style="17"/>
+    <col min="8450" max="8450" width="14.125" style="17" customWidth="1"/>
+    <col min="8451" max="8451" width="16.375" style="17" customWidth="1"/>
+    <col min="8452" max="8452" width="16" style="17" customWidth="1"/>
+    <col min="8453" max="8453" width="17.375" style="17" customWidth="1"/>
+    <col min="8454" max="8454" width="16.5" style="17" customWidth="1"/>
+    <col min="8455" max="8455" width="17.5" style="17" customWidth="1"/>
+    <col min="8456" max="8456" width="14" style="17" customWidth="1"/>
+    <col min="8457" max="8705" width="9" style="17"/>
+    <col min="8706" max="8706" width="14.125" style="17" customWidth="1"/>
+    <col min="8707" max="8707" width="16.375" style="17" customWidth="1"/>
+    <col min="8708" max="8708" width="16" style="17" customWidth="1"/>
+    <col min="8709" max="8709" width="17.375" style="17" customWidth="1"/>
+    <col min="8710" max="8710" width="16.5" style="17" customWidth="1"/>
+    <col min="8711" max="8711" width="17.5" style="17" customWidth="1"/>
+    <col min="8712" max="8712" width="14" style="17" customWidth="1"/>
+    <col min="8713" max="8961" width="9" style="17"/>
+    <col min="8962" max="8962" width="14.125" style="17" customWidth="1"/>
+    <col min="8963" max="8963" width="16.375" style="17" customWidth="1"/>
+    <col min="8964" max="8964" width="16" style="17" customWidth="1"/>
+    <col min="8965" max="8965" width="17.375" style="17" customWidth="1"/>
+    <col min="8966" max="8966" width="16.5" style="17" customWidth="1"/>
+    <col min="8967" max="8967" width="17.5" style="17" customWidth="1"/>
+    <col min="8968" max="8968" width="14" style="17" customWidth="1"/>
+    <col min="8969" max="9217" width="9" style="17"/>
+    <col min="9218" max="9218" width="14.125" style="17" customWidth="1"/>
+    <col min="9219" max="9219" width="16.375" style="17" customWidth="1"/>
+    <col min="9220" max="9220" width="16" style="17" customWidth="1"/>
+    <col min="9221" max="9221" width="17.375" style="17" customWidth="1"/>
+    <col min="9222" max="9222" width="16.5" style="17" customWidth="1"/>
+    <col min="9223" max="9223" width="17.5" style="17" customWidth="1"/>
+    <col min="9224" max="9224" width="14" style="17" customWidth="1"/>
+    <col min="9225" max="9473" width="9" style="17"/>
+    <col min="9474" max="9474" width="14.125" style="17" customWidth="1"/>
+    <col min="9475" max="9475" width="16.375" style="17" customWidth="1"/>
+    <col min="9476" max="9476" width="16" style="17" customWidth="1"/>
+    <col min="9477" max="9477" width="17.375" style="17" customWidth="1"/>
+    <col min="9478" max="9478" width="16.5" style="17" customWidth="1"/>
+    <col min="9479" max="9479" width="17.5" style="17" customWidth="1"/>
+    <col min="9480" max="9480" width="14" style="17" customWidth="1"/>
+    <col min="9481" max="9729" width="9" style="17"/>
+    <col min="9730" max="9730" width="14.125" style="17" customWidth="1"/>
+    <col min="9731" max="9731" width="16.375" style="17" customWidth="1"/>
+    <col min="9732" max="9732" width="16" style="17" customWidth="1"/>
+    <col min="9733" max="9733" width="17.375" style="17" customWidth="1"/>
+    <col min="9734" max="9734" width="16.5" style="17" customWidth="1"/>
+    <col min="9735" max="9735" width="17.5" style="17" customWidth="1"/>
+    <col min="9736" max="9736" width="14" style="17" customWidth="1"/>
+    <col min="9737" max="9985" width="9" style="17"/>
+    <col min="9986" max="9986" width="14.125" style="17" customWidth="1"/>
+    <col min="9987" max="9987" width="16.375" style="17" customWidth="1"/>
+    <col min="9988" max="9988" width="16" style="17" customWidth="1"/>
+    <col min="9989" max="9989" width="17.375" style="17" customWidth="1"/>
+    <col min="9990" max="9990" width="16.5" style="17" customWidth="1"/>
+    <col min="9991" max="9991" width="17.5" style="17" customWidth="1"/>
+    <col min="9992" max="9992" width="14" style="17" customWidth="1"/>
+    <col min="9993" max="10241" width="9" style="17"/>
+    <col min="10242" max="10242" width="14.125" style="17" customWidth="1"/>
+    <col min="10243" max="10243" width="16.375" style="17" customWidth="1"/>
+    <col min="10244" max="10244" width="16" style="17" customWidth="1"/>
+    <col min="10245" max="10245" width="17.375" style="17" customWidth="1"/>
+    <col min="10246" max="10246" width="16.5" style="17" customWidth="1"/>
+    <col min="10247" max="10247" width="17.5" style="17" customWidth="1"/>
+    <col min="10248" max="10248" width="14" style="17" customWidth="1"/>
+    <col min="10249" max="10497" width="9" style="17"/>
+    <col min="10498" max="10498" width="14.125" style="17" customWidth="1"/>
+    <col min="10499" max="10499" width="16.375" style="17" customWidth="1"/>
+    <col min="10500" max="10500" width="16" style="17" customWidth="1"/>
+    <col min="10501" max="10501" width="17.375" style="17" customWidth="1"/>
+    <col min="10502" max="10502" width="16.5" style="17" customWidth="1"/>
+    <col min="10503" max="10503" width="17.5" style="17" customWidth="1"/>
+    <col min="10504" max="10504" width="14" style="17" customWidth="1"/>
+    <col min="10505" max="10753" width="9" style="17"/>
+    <col min="10754" max="10754" width="14.125" style="17" customWidth="1"/>
+    <col min="10755" max="10755" width="16.375" style="17" customWidth="1"/>
+    <col min="10756" max="10756" width="16" style="17" customWidth="1"/>
+    <col min="10757" max="10757" width="17.375" style="17" customWidth="1"/>
+    <col min="10758" max="10758" width="16.5" style="17" customWidth="1"/>
+    <col min="10759" max="10759" width="17.5" style="17" customWidth="1"/>
+    <col min="10760" max="10760" width="14" style="17" customWidth="1"/>
+    <col min="10761" max="11009" width="9" style="17"/>
+    <col min="11010" max="11010" width="14.125" style="17" customWidth="1"/>
+    <col min="11011" max="11011" width="16.375" style="17" customWidth="1"/>
+    <col min="11012" max="11012" width="16" style="17" customWidth="1"/>
+    <col min="11013" max="11013" width="17.375" style="17" customWidth="1"/>
+    <col min="11014" max="11014" width="16.5" style="17" customWidth="1"/>
+    <col min="11015" max="11015" width="17.5" style="17" customWidth="1"/>
+    <col min="11016" max="11016" width="14" style="17" customWidth="1"/>
+    <col min="11017" max="11265" width="9" style="17"/>
+    <col min="11266" max="11266" width="14.125" style="17" customWidth="1"/>
+    <col min="11267" max="11267" width="16.375" style="17" customWidth="1"/>
+    <col min="11268" max="11268" width="16" style="17" customWidth="1"/>
+    <col min="11269" max="11269" width="17.375" style="17" customWidth="1"/>
+    <col min="11270" max="11270" width="16.5" style="17" customWidth="1"/>
+    <col min="11271" max="11271" width="17.5" style="17" customWidth="1"/>
+    <col min="11272" max="11272" width="14" style="17" customWidth="1"/>
+    <col min="11273" max="11521" width="9" style="17"/>
+    <col min="11522" max="11522" width="14.125" style="17" customWidth="1"/>
+    <col min="11523" max="11523" width="16.375" style="17" customWidth="1"/>
+    <col min="11524" max="11524" width="16" style="17" customWidth="1"/>
+    <col min="11525" max="11525" width="17.375" style="17" customWidth="1"/>
+    <col min="11526" max="11526" width="16.5" style="17" customWidth="1"/>
+    <col min="11527" max="11527" width="17.5" style="17" customWidth="1"/>
+    <col min="11528" max="11528" width="14" style="17" customWidth="1"/>
+    <col min="11529" max="11777" width="9" style="17"/>
+    <col min="11778" max="11778" width="14.125" style="17" customWidth="1"/>
+    <col min="11779" max="11779" width="16.375" style="17" customWidth="1"/>
+    <col min="11780" max="11780" width="16" style="17" customWidth="1"/>
+    <col min="11781" max="11781" width="17.375" style="17" customWidth="1"/>
+    <col min="11782" max="11782" width="16.5" style="17" customWidth="1"/>
+    <col min="11783" max="11783" width="17.5" style="17" customWidth="1"/>
+    <col min="11784" max="11784" width="14" style="17" customWidth="1"/>
+    <col min="11785" max="12033" width="9" style="17"/>
+    <col min="12034" max="12034" width="14.125" style="17" customWidth="1"/>
+    <col min="12035" max="12035" width="16.375" style="17" customWidth="1"/>
+    <col min="12036" max="12036" width="16" style="17" customWidth="1"/>
+    <col min="12037" max="12037" width="17.375" style="17" customWidth="1"/>
+    <col min="12038" max="12038" width="16.5" style="17" customWidth="1"/>
+    <col min="12039" max="12039" width="17.5" style="17" customWidth="1"/>
+    <col min="12040" max="12040" width="14" style="17" customWidth="1"/>
+    <col min="12041" max="12289" width="9" style="17"/>
+    <col min="12290" max="12290" width="14.125" style="17" customWidth="1"/>
+    <col min="12291" max="12291" width="16.375" style="17" customWidth="1"/>
+    <col min="12292" max="12292" width="16" style="17" customWidth="1"/>
+    <col min="12293" max="12293" width="17.375" style="17" customWidth="1"/>
+    <col min="12294" max="12294" width="16.5" style="17" customWidth="1"/>
+    <col min="12295" max="12295" width="17.5" style="17" customWidth="1"/>
+    <col min="12296" max="12296" width="14" style="17" customWidth="1"/>
+    <col min="12297" max="12545" width="9" style="17"/>
+    <col min="12546" max="12546" width="14.125" style="17" customWidth="1"/>
+    <col min="12547" max="12547" width="16.375" style="17" customWidth="1"/>
+    <col min="12548" max="12548" width="16" style="17" customWidth="1"/>
+    <col min="12549" max="12549" width="17.375" style="17" customWidth="1"/>
+    <col min="12550" max="12550" width="16.5" style="17" customWidth="1"/>
+    <col min="12551" max="12551" width="17.5" style="17" customWidth="1"/>
+    <col min="12552" max="12552" width="14" style="17" customWidth="1"/>
+    <col min="12553" max="12801" width="9" style="17"/>
+    <col min="12802" max="12802" width="14.125" style="17" customWidth="1"/>
+    <col min="12803" max="12803" width="16.375" style="17" customWidth="1"/>
+    <col min="12804" max="12804" width="16" style="17" customWidth="1"/>
+    <col min="12805" max="12805" width="17.375" style="17" customWidth="1"/>
+    <col min="12806" max="12806" width="16.5" style="17" customWidth="1"/>
+    <col min="12807" max="12807" width="17.5" style="17" customWidth="1"/>
+    <col min="12808" max="12808" width="14" style="17" customWidth="1"/>
+    <col min="12809" max="13057" width="9" style="17"/>
+    <col min="13058" max="13058" width="14.125" style="17" customWidth="1"/>
+    <col min="13059" max="13059" width="16.375" style="17" customWidth="1"/>
+    <col min="13060" max="13060" width="16" style="17" customWidth="1"/>
+    <col min="13061" max="13061" width="17.375" style="17" customWidth="1"/>
+    <col min="13062" max="13062" width="16.5" style="17" customWidth="1"/>
+    <col min="13063" max="13063" width="17.5" style="17" customWidth="1"/>
+    <col min="13064" max="13064" width="14" style="17" customWidth="1"/>
+    <col min="13065" max="13313" width="9" style="17"/>
+    <col min="13314" max="13314" width="14.125" style="17" customWidth="1"/>
+    <col min="13315" max="13315" width="16.375" style="17" customWidth="1"/>
+    <col min="13316" max="13316" width="16" style="17" customWidth="1"/>
+    <col min="13317" max="13317" width="17.375" style="17" customWidth="1"/>
+    <col min="13318" max="13318" width="16.5" style="17" customWidth="1"/>
+    <col min="13319" max="13319" width="17.5" style="17" customWidth="1"/>
+    <col min="13320" max="13320" width="14" style="17" customWidth="1"/>
+    <col min="13321" max="13569" width="9" style="17"/>
+    <col min="13570" max="13570" width="14.125" style="17" customWidth="1"/>
+    <col min="13571" max="13571" width="16.375" style="17" customWidth="1"/>
+    <col min="13572" max="13572" width="16" style="17" customWidth="1"/>
+    <col min="13573" max="13573" width="17.375" style="17" customWidth="1"/>
+    <col min="13574" max="13574" width="16.5" style="17" customWidth="1"/>
+    <col min="13575" max="13575" width="17.5" style="17" customWidth="1"/>
+    <col min="13576" max="13576" width="14" style="17" customWidth="1"/>
+    <col min="13577" max="13825" width="9" style="17"/>
+    <col min="13826" max="13826" width="14.125" style="17" customWidth="1"/>
+    <col min="13827" max="13827" width="16.375" style="17" customWidth="1"/>
+    <col min="13828" max="13828" width="16" style="17" customWidth="1"/>
+    <col min="13829" max="13829" width="17.375" style="17" customWidth="1"/>
+    <col min="13830" max="13830" width="16.5" style="17" customWidth="1"/>
+    <col min="13831" max="13831" width="17.5" style="17" customWidth="1"/>
+    <col min="13832" max="13832" width="14" style="17" customWidth="1"/>
+    <col min="13833" max="14081" width="9" style="17"/>
+    <col min="14082" max="14082" width="14.125" style="17" customWidth="1"/>
+    <col min="14083" max="14083" width="16.375" style="17" customWidth="1"/>
+    <col min="14084" max="14084" width="16" style="17" customWidth="1"/>
+    <col min="14085" max="14085" width="17.375" style="17" customWidth="1"/>
+    <col min="14086" max="14086" width="16.5" style="17" customWidth="1"/>
+    <col min="14087" max="14087" width="17.5" style="17" customWidth="1"/>
+    <col min="14088" max="14088" width="14" style="17" customWidth="1"/>
+    <col min="14089" max="14337" width="9" style="17"/>
+    <col min="14338" max="14338" width="14.125" style="17" customWidth="1"/>
+    <col min="14339" max="14339" width="16.375" style="17" customWidth="1"/>
+    <col min="14340" max="14340" width="16" style="17" customWidth="1"/>
+    <col min="14341" max="14341" width="17.375" style="17" customWidth="1"/>
+    <col min="14342" max="14342" width="16.5" style="17" customWidth="1"/>
+    <col min="14343" max="14343" width="17.5" style="17" customWidth="1"/>
+    <col min="14344" max="14344" width="14" style="17" customWidth="1"/>
+    <col min="14345" max="14593" width="9" style="17"/>
+    <col min="14594" max="14594" width="14.125" style="17" customWidth="1"/>
+    <col min="14595" max="14595" width="16.375" style="17" customWidth="1"/>
+    <col min="14596" max="14596" width="16" style="17" customWidth="1"/>
+    <col min="14597" max="14597" width="17.375" style="17" customWidth="1"/>
+    <col min="14598" max="14598" width="16.5" style="17" customWidth="1"/>
+    <col min="14599" max="14599" width="17.5" style="17" customWidth="1"/>
+    <col min="14600" max="14600" width="14" style="17" customWidth="1"/>
+    <col min="14601" max="14849" width="9" style="17"/>
+    <col min="14850" max="14850" width="14.125" style="17" customWidth="1"/>
+    <col min="14851" max="14851" width="16.375" style="17" customWidth="1"/>
+    <col min="14852" max="14852" width="16" style="17" customWidth="1"/>
+    <col min="14853" max="14853" width="17.375" style="17" customWidth="1"/>
+    <col min="14854" max="14854" width="16.5" style="17" customWidth="1"/>
+    <col min="14855" max="14855" width="17.5" style="17" customWidth="1"/>
+    <col min="14856" max="14856" width="14" style="17" customWidth="1"/>
+    <col min="14857" max="15105" width="9" style="17"/>
+    <col min="15106" max="15106" width="14.125" style="17" customWidth="1"/>
+    <col min="15107" max="15107" width="16.375" style="17" customWidth="1"/>
+    <col min="15108" max="15108" width="16" style="17" customWidth="1"/>
+    <col min="15109" max="15109" width="17.375" style="17" customWidth="1"/>
+    <col min="15110" max="15110" width="16.5" style="17" customWidth="1"/>
+    <col min="15111" max="15111" width="17.5" style="17" customWidth="1"/>
+    <col min="15112" max="15112" width="14" style="17" customWidth="1"/>
+    <col min="15113" max="15361" width="9" style="17"/>
+    <col min="15362" max="15362" width="14.125" style="17" customWidth="1"/>
+    <col min="15363" max="15363" width="16.375" style="17" customWidth="1"/>
+    <col min="15364" max="15364" width="16" style="17" customWidth="1"/>
+    <col min="15365" max="15365" width="17.375" style="17" customWidth="1"/>
+    <col min="15366" max="15366" width="16.5" style="17" customWidth="1"/>
+    <col min="15367" max="15367" width="17.5" style="17" customWidth="1"/>
+    <col min="15368" max="15368" width="14" style="17" customWidth="1"/>
+    <col min="15369" max="15617" width="9" style="17"/>
+    <col min="15618" max="15618" width="14.125" style="17" customWidth="1"/>
+    <col min="15619" max="15619" width="16.375" style="17" customWidth="1"/>
+    <col min="15620" max="15620" width="16" style="17" customWidth="1"/>
+    <col min="15621" max="15621" width="17.375" style="17" customWidth="1"/>
+    <col min="15622" max="15622" width="16.5" style="17" customWidth="1"/>
+    <col min="15623" max="15623" width="17.5" style="17" customWidth="1"/>
+    <col min="15624" max="15624" width="14" style="17" customWidth="1"/>
+    <col min="15625" max="15873" width="9" style="17"/>
+    <col min="15874" max="15874" width="14.125" style="17" customWidth="1"/>
+    <col min="15875" max="15875" width="16.375" style="17" customWidth="1"/>
+    <col min="15876" max="15876" width="16" style="17" customWidth="1"/>
+    <col min="15877" max="15877" width="17.375" style="17" customWidth="1"/>
+    <col min="15878" max="15878" width="16.5" style="17" customWidth="1"/>
+    <col min="15879" max="15879" width="17.5" style="17" customWidth="1"/>
+    <col min="15880" max="15880" width="14" style="17" customWidth="1"/>
+    <col min="15881" max="16129" width="9" style="17"/>
+    <col min="16130" max="16130" width="14.125" style="17" customWidth="1"/>
+    <col min="16131" max="16131" width="16.375" style="17" customWidth="1"/>
+    <col min="16132" max="16132" width="16" style="17" customWidth="1"/>
+    <col min="16133" max="16133" width="17.375" style="17" customWidth="1"/>
+    <col min="16134" max="16134" width="16.5" style="17" customWidth="1"/>
+    <col min="16135" max="16135" width="17.5" style="17" customWidth="1"/>
+    <col min="16136" max="16136" width="14" style="17" customWidth="1"/>
+    <col min="16137" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-    </row>
-    <row r="2" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-    </row>
-    <row r="3" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-    </row>
-    <row r="4" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-    </row>
-    <row r="5" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+    </row>
+    <row r="2" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+    </row>
+    <row r="3" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+    </row>
+    <row r="4" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+    </row>
+    <row r="5" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -1874,254 +1958,277 @@
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="59"/>
+      <c r="F7" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="G7" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
-      <c r="B8" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>18</v>
-      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="56"/>
       <c r="E8" s="57"/>
-      <c r="F8" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="F8" s="35"/>
+      <c r="G8" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
       <c r="B9" s="34"/>
       <c r="C9" s="16"/>
       <c r="D9" s="56"/>
       <c r="E9" s="57"/>
       <c r="F9" s="35"/>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="G9" s="35"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
       <c r="B10" s="34"/>
       <c r="C10" s="16"/>
       <c r="D10" s="56"/>
       <c r="E10" s="57"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="G10" s="35"/>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
       <c r="B11" s="34"/>
       <c r="C11" s="16"/>
       <c r="D11" s="56"/>
       <c r="E11" s="57"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="G11" s="35"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
       <c r="B12" s="34"/>
       <c r="C12" s="16"/>
       <c r="D12" s="56"/>
       <c r="E12" s="57"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="G12" s="35"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
       <c r="B13" s="34"/>
       <c r="C13" s="16"/>
       <c r="D13" s="56"/>
       <c r="E13" s="57"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="G13" s="35"/>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
       <c r="B14" s="34"/>
       <c r="C14" s="16"/>
       <c r="D14" s="56"/>
       <c r="E14" s="57"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="G14" s="35"/>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
       <c r="B15" s="34"/>
       <c r="C15" s="16"/>
       <c r="D15" s="56"/>
       <c r="E15" s="57"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="G15" s="35"/>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
       <c r="B16" s="34"/>
       <c r="C16" s="16"/>
       <c r="D16" s="56"/>
       <c r="E16" s="57"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="G16" s="35"/>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
       <c r="B17" s="34"/>
       <c r="C17" s="16"/>
       <c r="D17" s="56"/>
       <c r="E17" s="57"/>
       <c r="F17" s="35"/>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="G17" s="35"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="34"/>
       <c r="C18" s="16"/>
       <c r="D18" s="56"/>
       <c r="E18" s="57"/>
       <c r="F18" s="35"/>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="G18" s="35"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
       <c r="B19" s="34"/>
       <c r="C19" s="16"/>
       <c r="D19" s="56"/>
       <c r="E19" s="57"/>
       <c r="F19" s="35"/>
-      <c r="G19" s="18"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="G19" s="35"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="18"/>
       <c r="B20" s="34"/>
       <c r="C20" s="16"/>
       <c r="D20" s="56"/>
       <c r="E20" s="57"/>
       <c r="F20" s="35"/>
-      <c r="G20" s="18"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="G20" s="35"/>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
       <c r="B21" s="34"/>
       <c r="C21" s="16"/>
       <c r="D21" s="56"/>
       <c r="E21" s="57"/>
       <c r="F21" s="35"/>
-      <c r="G21" s="18"/>
-    </row>
-    <row r="22" spans="1:7" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G21" s="35"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="1:8" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
       <c r="B22" s="34"/>
       <c r="C22" s="16"/>
       <c r="D22" s="56"/>
       <c r="E22" s="57"/>
       <c r="F22" s="35"/>
-      <c r="G22" s="18"/>
-    </row>
-    <row r="23" spans="1:7" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G22" s="35"/>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="1:8" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
       <c r="B23" s="34"/>
       <c r="C23" s="16"/>
       <c r="D23" s="56"/>
       <c r="E23" s="57"/>
       <c r="F23" s="35"/>
-      <c r="G23" s="18"/>
-    </row>
-    <row r="24" spans="1:7" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G23" s="35"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="1:8" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18"/>
       <c r="B24" s="34"/>
       <c r="C24" s="16"/>
       <c r="D24" s="56"/>
       <c r="E24" s="57"/>
       <c r="F24" s="35"/>
-      <c r="G24" s="18"/>
-    </row>
-    <row r="25" spans="1:7" s="19" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="35"/>
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="1:8" s="19" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="36"/>
       <c r="C25" s="37"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="59"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
       <c r="F25" s="38"/>
-      <c r="G25" s="18"/>
-    </row>
-    <row r="26" spans="1:7" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G25" s="38"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:8" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
-      <c r="G26" s="20"/>
-    </row>
-    <row r="27" spans="1:7" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-    </row>
-    <row r="28" spans="1:7" s="21" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="62"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-    </row>
-    <row r="29" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G26" s="18"/>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="1:8" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+    </row>
+    <row r="28" spans="1:8" s="21" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+    </row>
+    <row r="29" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="22"/>
       <c r="B29" s="23"/>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
-    </row>
-    <row r="30" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G29" s="24"/>
+    </row>
+    <row r="30" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="22"/>
       <c r="B30" s="23"/>
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
-    </row>
-    <row r="31" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G30" s="24"/>
+    </row>
+    <row r="31" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="22"/>
       <c r="B31" s="23"/>
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
-    </row>
-    <row r="32" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G31" s="24"/>
+    </row>
+    <row r="32" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="22"/>
       <c r="B32" s="23"/>
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
     </row>
     <row r="33" spans="3:5" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C33" s="25"/>
@@ -3055,8 +3162,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:G5"/>
-    <mergeCell ref="A27:G28"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A1:H5"/>
+    <mergeCell ref="A27:H28"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
@@ -3071,11 +3183,6 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3087,105 +3194,1217 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E11"/>
+  <dimension ref="B1:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4" style="43" customWidth="1"/>
-    <col min="2" max="2" width="27.25" style="43" customWidth="1"/>
-    <col min="3" max="3" width="32.75" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.75" style="43" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.25" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="43" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="43"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="3" max="3" width="21.875" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.875" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B2" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="80"/>
+    </row>
+    <row r="3" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="77"/>
+      <c r="F3" s="82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B4" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="57"/>
+      <c r="F4" s="35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="57"/>
+      <c r="F5" s="35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="34"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="35"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="34"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="35"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B8" s="34"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="35"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="34"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="35"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B10" s="34"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="35"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B11" s="34"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="35"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B12" s="34"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="35"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B13" s="34"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="35"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B14" s="34"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="35"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B15" s="34"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="35"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B16" s="34"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="35"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="34"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="35"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="34"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="35"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B19" s="34"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="35"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B20" s="34"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="35"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B21" s="34"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="35"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B22" s="34"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="35"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B23" s="34"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="35"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="34"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="35"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25" s="34"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="35"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26" s="34"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="35"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" s="34"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="35"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B28" s="34"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="35"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B29" s="34"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="35"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B30" s="34"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="35"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B31" s="34"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="35"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B32" s="34"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="35"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B33" s="34"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="35"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B34" s="34"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="35"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B35" s="34"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="35"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B36" s="34"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="35"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B37" s="34"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="35"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B38" s="34"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="35"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B39" s="34"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="35"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B40" s="34"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="35"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B41" s="34"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="35"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B42" s="34"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="35"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B43" s="34"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="35"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B44" s="34"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="35"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B45" s="34"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="35"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B46" s="34"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="35"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B47" s="34"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="35"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B48" s="34"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="35"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B49" s="34"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="35"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B50" s="34"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="35"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B51" s="34"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="35"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B52" s="34"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="35"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B53" s="34"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="35"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B54" s="34"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="35"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B55" s="34"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="35"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B56" s="34"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="35"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B57" s="34"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="35"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B58" s="34"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="35"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B59" s="34"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="35"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B60" s="34"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="35"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B61" s="34"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="35"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B62" s="34"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="35"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B63" s="34"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="35"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B64" s="34"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="35"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B65" s="34"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="35"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B66" s="34"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="35"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B67" s="34"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="35"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B68" s="34"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="57"/>
+      <c r="F68" s="35"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B69" s="34"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="35"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B70" s="34"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="35"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B71" s="34"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="57"/>
+      <c r="F71" s="35"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B72" s="34"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="57"/>
+      <c r="F72" s="35"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B73" s="34"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="56"/>
+      <c r="E73" s="57"/>
+      <c r="F73" s="35"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B74" s="34"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="57"/>
+      <c r="F74" s="35"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B75" s="34"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="57"/>
+      <c r="F75" s="35"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B76" s="34"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="57"/>
+      <c r="F76" s="35"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B77" s="34"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="56"/>
+      <c r="E77" s="57"/>
+      <c r="F77" s="35"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B78" s="34"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="56"/>
+      <c r="E78" s="57"/>
+      <c r="F78" s="35"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B79" s="34"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="57"/>
+      <c r="F79" s="35"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B80" s="34"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="56"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="35"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B81" s="34"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="56"/>
+      <c r="E81" s="57"/>
+      <c r="F81" s="35"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B82" s="34"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="57"/>
+      <c r="F82" s="35"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B83" s="34"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="56"/>
+      <c r="E83" s="57"/>
+      <c r="F83" s="35"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B84" s="34"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="57"/>
+      <c r="F84" s="35"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B85" s="34"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="56"/>
+      <c r="E85" s="57"/>
+      <c r="F85" s="35"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B86" s="34"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="57"/>
+      <c r="F86" s="35"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B87" s="34"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="56"/>
+      <c r="E87" s="57"/>
+      <c r="F87" s="35"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B88" s="34"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="56"/>
+      <c r="E88" s="57"/>
+      <c r="F88" s="35"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B89" s="34"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="56"/>
+      <c r="E89" s="57"/>
+      <c r="F89" s="35"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B90" s="34"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="56"/>
+      <c r="E90" s="57"/>
+      <c r="F90" s="35"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B91" s="34"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="56"/>
+      <c r="E91" s="57"/>
+      <c r="F91" s="35"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B92" s="34"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="56"/>
+      <c r="E92" s="57"/>
+      <c r="F92" s="35"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B93" s="34"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="56"/>
+      <c r="E93" s="57"/>
+      <c r="F93" s="35"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B94" s="34"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="56"/>
+      <c r="E94" s="57"/>
+      <c r="F94" s="35"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B95" s="34"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="56"/>
+      <c r="E95" s="57"/>
+      <c r="F95" s="35"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B96" s="34"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="56"/>
+      <c r="E96" s="57"/>
+      <c r="F96" s="35"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B97" s="34"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="56"/>
+      <c r="E97" s="57"/>
+      <c r="F97" s="35"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B98" s="34"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="56"/>
+      <c r="E98" s="57"/>
+      <c r="F98" s="35"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B99" s="34"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="56"/>
+      <c r="E99" s="57"/>
+      <c r="F99" s="35"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B100" s="34"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="56"/>
+      <c r="E100" s="57"/>
+      <c r="F100" s="35"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B101" s="34"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="56"/>
+      <c r="E101" s="57"/>
+      <c r="F101" s="35"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B102" s="34"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="56"/>
+      <c r="E102" s="57"/>
+      <c r="F102" s="35"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B103" s="34"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="56"/>
+      <c r="E103" s="57"/>
+      <c r="F103" s="35"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B104" s="34"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="56"/>
+      <c r="E104" s="57"/>
+      <c r="F104" s="35"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B105" s="34"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="56"/>
+      <c r="E105" s="57"/>
+      <c r="F105" s="35"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B106" s="34"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="56"/>
+      <c r="E106" s="57"/>
+      <c r="F106" s="35"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B107" s="34"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="56"/>
+      <c r="E107" s="57"/>
+      <c r="F107" s="35"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B108" s="34"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="56"/>
+      <c r="E108" s="57"/>
+      <c r="F108" s="35"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B109" s="34"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="56"/>
+      <c r="E109" s="57"/>
+      <c r="F109" s="35"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B110" s="34"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="56"/>
+      <c r="E110" s="57"/>
+      <c r="F110" s="35"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B111" s="34"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="56"/>
+      <c r="E111" s="57"/>
+      <c r="F111" s="35"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B112" s="34"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="56"/>
+      <c r="E112" s="57"/>
+      <c r="F112" s="35"/>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B113" s="34"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="56"/>
+      <c r="E113" s="57"/>
+      <c r="F113" s="35"/>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B114" s="34"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="56"/>
+      <c r="E114" s="57"/>
+      <c r="F114" s="35"/>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B115" s="34"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="56"/>
+      <c r="E115" s="57"/>
+      <c r="F115" s="35"/>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B116" s="34"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="56"/>
+      <c r="E116" s="57"/>
+      <c r="F116" s="35"/>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B117" s="34"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="56"/>
+      <c r="E117" s="57"/>
+      <c r="F117" s="35"/>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B118" s="34"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="56"/>
+      <c r="E118" s="57"/>
+      <c r="F118" s="35"/>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B119" s="34"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="56"/>
+      <c r="E119" s="57"/>
+      <c r="F119" s="35"/>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B120" s="34"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="56"/>
+      <c r="E120" s="57"/>
+      <c r="F120" s="35"/>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B121" s="3"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="56"/>
+      <c r="E121" s="57"/>
+      <c r="F121" s="2"/>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B122" s="3"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="56"/>
+      <c r="E122" s="57"/>
+      <c r="F122" s="2"/>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B123" s="3"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="56"/>
+      <c r="E123" s="57"/>
+      <c r="F123" s="2"/>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B124" s="3"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="56"/>
+      <c r="E124" s="57"/>
+      <c r="F124" s="2"/>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B125" s="3"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="56"/>
+      <c r="E125" s="57"/>
+      <c r="F125" s="2"/>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B126" s="3"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="56"/>
+      <c r="E126" s="57"/>
+      <c r="F126" s="2"/>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B127" s="3"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="56"/>
+      <c r="E127" s="57"/>
+      <c r="F127" s="2"/>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B128" s="3"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="56"/>
+      <c r="E128" s="57"/>
+      <c r="F128" s="2"/>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B129" s="3"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="56"/>
+      <c r="E129" s="57"/>
+      <c r="F129" s="2"/>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B130" s="3"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="56"/>
+      <c r="E130" s="57"/>
+      <c r="F130" s="2"/>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B131" s="3"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="56"/>
+      <c r="E131" s="57"/>
+      <c r="F131" s="2"/>
+    </row>
+    <row r="132" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B132" s="4"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="60"/>
+      <c r="E132" s="61"/>
+      <c r="F132" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="131">
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D3:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E11"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4" style="42" customWidth="1"/>
+    <col min="2" max="2" width="27.125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="28.25" style="42" customWidth="1"/>
+    <col min="4" max="4" width="18.25" style="42" customWidth="1"/>
+    <col min="5" max="5" width="18.75" style="42" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="42" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:5" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67"/>
-    </row>
-    <row r="3" spans="2:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="44" t="s">
+      <c r="B2" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64"/>
+    </row>
+    <row r="3" spans="2:5" ht="60.75" x14ac:dyDescent="0.15">
+      <c r="B3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="B4" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="45">
+        <v>50</v>
+      </c>
+      <c r="E4" s="46">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="B5" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="45" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
-    </row>
-    <row r="5" spans="2:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="B5" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="46" t="s">
+      <c r="D5" s="44">
+        <v>25</v>
+      </c>
+      <c r="E5" s="48">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="B6" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="49"/>
-    </row>
-    <row r="6" spans="2:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="B6" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="49"/>
+      <c r="D6" s="44">
+        <v>50</v>
+      </c>
+      <c r="E6" s="48">
+        <v>5000</v>
+      </c>
     </row>
     <row r="7" spans="2:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="B7" s="48"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="49"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="48"/>
     </row>
     <row r="8" spans="2:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="49"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="48"/>
     </row>
     <row r="9" spans="2:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="49"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="48"/>
     </row>
     <row r="10" spans="2:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="49"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="48"/>
     </row>
     <row r="11" spans="2:5" ht="21" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3197,7 +4416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E11"/>
   <sheetViews>
@@ -3217,26 +4436,26 @@
   <sheetData>
     <row r="1" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:5" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70"/>
+      <c r="B2" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
     </row>
     <row r="3" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="2:5" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="8">
         <v>1</v>
@@ -3246,7 +4465,7 @@
     </row>
     <row r="5" spans="2:5" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="8">
         <v>2</v>
@@ -3256,7 +4475,7 @@
     </row>
     <row r="6" spans="2:5" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="8">
         <v>3</v>
@@ -3304,12 +4523,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F35"/>
+  <dimension ref="B1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G3" sqref="G3:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3317,395 +4536,433 @@
     <col min="1" max="1" width="5.875" customWidth="1"/>
     <col min="2" max="2" width="38.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="5" width="27.875" customWidth="1"/>
-    <col min="6" max="6" width="29.5" customWidth="1"/>
+    <col min="4" max="4" width="21.125" customWidth="1"/>
+    <col min="5" max="5" width="29.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
-    </row>
-    <row r="3" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="73" t="s">
+    <row r="1" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="67"/>
+    </row>
+    <row r="3" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="75" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="69"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="75"/>
+    </row>
+    <row r="5" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="72"/>
-    </row>
-    <row r="4" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="73"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="10" t="s">
+      <c r="D6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="7" t="s">
+      <c r="C7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="7" t="s">
+      <c r="D9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="7" t="s">
+      <c r="C14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="7" t="s">
+      <c r="D15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="D16" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F18" s="10"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F19" s="10"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F20" s="8"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F21" s="10"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F22" s="10"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="12"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F24" s="10"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="12"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F25" s="10"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="12"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F26" s="10"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="12"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F27" s="10"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="12"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F28" s="10"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="12"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F29" s="10"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="12"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F30" s="10"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="12"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F31" s="10"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="12"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
-      <c r="F32" s="11"/>
-    </row>
-    <row r="33" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F32" s="10"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="12"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
-      <c r="F33" s="11"/>
-    </row>
-    <row r="34" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="3"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="2:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="6"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="71"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="73"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B2:F2"/>
+  <mergeCells count="6">
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:F35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:G35">
       <formula1>"Support,NotSupport"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3713,12 +4970,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S12"/>
+  <dimension ref="B1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3732,129 +4989,135 @@
     <col min="7" max="11" width="3.125" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="13.875" bestFit="1" customWidth="1"/>
     <col min="15" max="19" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:19" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="68" t="str">
+    <row r="1" spans="2:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:20" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="65" t="str">
         <f>'03_DiagnosticServicesList'!B5&amp;" Sub Function of Ecu Support"</f>
         <v>Diagnostic Session Control Sub Function of Ecu Support</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="70"/>
-    </row>
-    <row r="3" spans="2:19" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="74" t="s">
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="67"/>
+    </row>
+    <row r="3" spans="2:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="72"/>
-    </row>
-    <row r="4" spans="2:19" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="73"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="54" t="str">
+      <c r="D3" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="75" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="52" t="str">
         <f>INDEX('01_DiagnosticSession'!$B$4:$B$11,COLUMN('01_DiagnosticSession'!B3)-1)</f>
         <v>DefaultSession</v>
       </c>
-      <c r="E4" s="54" t="str">
+      <c r="E4" s="52" t="str">
         <f>INDEX('01_DiagnosticSession'!$B$4:$B$11,COLUMN('01_DiagnosticSession'!C3)-1)</f>
         <v>ProgrammingSession</v>
       </c>
-      <c r="F4" s="54" t="str">
+      <c r="F4" s="52" t="str">
         <f>INDEX('01_DiagnosticSession'!$B$4:$B$11,COLUMN('01_DiagnosticSession'!D3)-1)</f>
         <v>ExtendedSession</v>
       </c>
-      <c r="G4" s="54">
+      <c r="G4" s="52">
         <f>INDEX('01_DiagnosticSession'!$B$4:$B$11,COLUMN('01_DiagnosticSession'!E3)-1)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="54">
+      <c r="H4" s="52">
         <f>INDEX('01_DiagnosticSession'!$B$4:$B$11,COLUMN('01_DiagnosticSession'!F3)-1)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="54">
+      <c r="I4" s="52">
         <f>INDEX('01_DiagnosticSession'!$B$4:$B$11,COLUMN('01_DiagnosticSession'!G3)-1)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="54">
+      <c r="J4" s="52">
         <f>INDEX('01_DiagnosticSession'!$B$4:$B$11,COLUMN('01_DiagnosticSession'!H3)-1)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="54">
+      <c r="K4" s="52">
         <f>INDEX('01_DiagnosticSession'!$B$4:$B$11,COLUMN('01_DiagnosticSession'!I3)-1)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="54" t="str">
+      <c r="L4" s="52" t="str">
         <f>INDEX('02_SecurityAccess'!$B$4:$B$11,COLUMN('02_SecurityAccess'!B4)-1)</f>
         <v>SA_Level1</v>
       </c>
-      <c r="M4" s="54" t="str">
+      <c r="M4" s="52" t="str">
         <f>INDEX('02_SecurityAccess'!$B$4:$B$11,COLUMN('02_SecurityAccess'!C4)-1)</f>
         <v>SA_Level2</v>
       </c>
-      <c r="N4" s="54" t="str">
+      <c r="N4" s="52" t="str">
         <f>INDEX('02_SecurityAccess'!$B$4:$B$11,COLUMN('02_SecurityAccess'!D4)-1)</f>
         <v>SA_Level3</v>
       </c>
-      <c r="O4" s="54">
+      <c r="O4" s="52">
         <f>INDEX('02_SecurityAccess'!$B$4:$B$11,COLUMN('02_SecurityAccess'!E4)-1)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="54">
+      <c r="P4" s="52">
         <f>INDEX('02_SecurityAccess'!$B$4:$B$11,COLUMN('02_SecurityAccess'!F4)-1)</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="54">
+      <c r="Q4" s="52">
         <f>INDEX('02_SecurityAccess'!$B$4:$B$11,COLUMN('02_SecurityAccess'!G4)-1)</f>
         <v>0</v>
       </c>
-      <c r="R4" s="54">
+      <c r="R4" s="52">
         <f>INDEX('02_SecurityAccess'!$B$4:$B$11,COLUMN('02_SecurityAccess'!H4)-1)</f>
         <v>0</v>
       </c>
-      <c r="S4" s="55">
+      <c r="S4" s="52">
         <f>INDEX('02_SecurityAccess'!$B$4:$B$11,COLUMN('02_SecurityAccess'!I4)-1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:19" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="T4" s="75"/>
+    </row>
+    <row r="5" spans="2:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="str">
         <f>'01_DiagnosticSession'!B4</f>
         <v>DefaultSession</v>
@@ -3864,13 +5127,13 @@
         <v>0x01</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -3878,21 +5141,22 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
-      <c r="S5" s="9"/>
-    </row>
-    <row r="6" spans="2:19" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="S5" s="8"/>
+      <c r="T5" s="9"/>
+    </row>
+    <row r="6" spans="2:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="str">
         <f>'01_DiagnosticSession'!B5</f>
         <v>ProgrammingSession</v>
@@ -3902,13 +5166,13 @@
         <v>0x02</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -3916,21 +5180,22 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
-      <c r="S6" s="9"/>
-    </row>
-    <row r="7" spans="2:19" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="S6" s="8"/>
+      <c r="T6" s="9"/>
+    </row>
+    <row r="7" spans="2:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="str">
         <f>'01_DiagnosticSession'!B6</f>
         <v>ExtendedSession</v>
@@ -3940,13 +5205,13 @@
         <v>0x03</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -3954,21 +5219,22 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
-      <c r="S7" s="9"/>
-    </row>
-    <row r="8" spans="2:19" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="S7" s="8"/>
+      <c r="T7" s="9"/>
+    </row>
+    <row r="8" spans="2:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -3986,9 +5252,10 @@
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
-      <c r="S8" s="9"/>
-    </row>
-    <row r="9" spans="2:19" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="S8" s="8"/>
+      <c r="T8" s="9"/>
+    </row>
+    <row r="9" spans="2:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -4006,9 +5273,10 @@
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
-      <c r="S9" s="9"/>
-    </row>
-    <row r="10" spans="2:19" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="S9" s="8"/>
+      <c r="T9" s="9"/>
+    </row>
+    <row r="10" spans="2:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -4026,9 +5294,10 @@
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
-      <c r="S10" s="9"/>
-    </row>
-    <row r="11" spans="2:19" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="S10" s="8"/>
+      <c r="T10" s="9"/>
+    </row>
+    <row r="11" spans="2:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -4046,31 +5315,34 @@
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
-      <c r="S11" s="9"/>
-    </row>
-    <row r="12" spans="2:19" ht="21" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="42"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="9"/>
+    </row>
+    <row r="12" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B2:S2"/>
+  <mergeCells count="6">
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="B2:T2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:K3"/>
@@ -4078,7 +5350,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:S12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:S12 T5:T12">
       <formula1>"Support,NotSupport"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4086,12 +5358,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S12"/>
+  <dimension ref="B1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="T12" sqref="B2:T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4105,143 +5377,149 @@
     <col min="7" max="11" width="3.125" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="13.875" bestFit="1" customWidth="1"/>
     <col min="15" max="19" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:19" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="68" t="str">
+    <row r="1" spans="2:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:20" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="65" t="str">
         <f>'03_DiagnosticServicesList'!B6&amp;" Sub Function of Ecu Support"</f>
         <v>ECU Reset Sub Function of Ecu Support</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="70"/>
-    </row>
-    <row r="3" spans="2:19" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="74" t="s">
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="67"/>
+    </row>
+    <row r="3" spans="2:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="72"/>
-    </row>
-    <row r="4" spans="2:19" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="73"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="39" t="str">
+      <c r="D3" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="75" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="52" t="str">
         <f>INDEX('01_DiagnosticSession'!$B$4:$B$11,COLUMN('01_DiagnosticSession'!B3)-1)</f>
         <v>DefaultSession</v>
       </c>
-      <c r="E4" s="39" t="str">
+      <c r="E4" s="52" t="str">
         <f>INDEX('01_DiagnosticSession'!$B$4:$B$11,COLUMN('01_DiagnosticSession'!C3)-1)</f>
         <v>ProgrammingSession</v>
       </c>
-      <c r="F4" s="39" t="str">
+      <c r="F4" s="52" t="str">
         <f>INDEX('01_DiagnosticSession'!$B$4:$B$11,COLUMN('01_DiagnosticSession'!D3)-1)</f>
         <v>ExtendedSession</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="52">
         <f>INDEX('01_DiagnosticSession'!$B$4:$B$11,COLUMN('01_DiagnosticSession'!E3)-1)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="52">
         <f>INDEX('01_DiagnosticSession'!$B$4:$B$11,COLUMN('01_DiagnosticSession'!F3)-1)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="39">
+      <c r="I4" s="52">
         <f>INDEX('01_DiagnosticSession'!$B$4:$B$11,COLUMN('01_DiagnosticSession'!G3)-1)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J4" s="52">
         <f>INDEX('01_DiagnosticSession'!$B$4:$B$11,COLUMN('01_DiagnosticSession'!H3)-1)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="39">
+      <c r="K4" s="52">
         <f>INDEX('01_DiagnosticSession'!$B$4:$B$11,COLUMN('01_DiagnosticSession'!I3)-1)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="39" t="str">
+      <c r="L4" s="52" t="str">
         <f>INDEX('02_SecurityAccess'!$B$4:$B$11,COLUMN('02_SecurityAccess'!B4)-1)</f>
         <v>SA_Level1</v>
       </c>
-      <c r="M4" s="39" t="str">
+      <c r="M4" s="52" t="str">
         <f>INDEX('02_SecurityAccess'!$B$4:$B$11,COLUMN('02_SecurityAccess'!C4)-1)</f>
         <v>SA_Level2</v>
       </c>
-      <c r="N4" s="39" t="str">
+      <c r="N4" s="52" t="str">
         <f>INDEX('02_SecurityAccess'!$B$4:$B$11,COLUMN('02_SecurityAccess'!D4)-1)</f>
         <v>SA_Level3</v>
       </c>
-      <c r="O4" s="39">
+      <c r="O4" s="52">
         <f>INDEX('02_SecurityAccess'!$B$4:$B$11,COLUMN('02_SecurityAccess'!E4)-1)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="39">
+      <c r="P4" s="52">
         <f>INDEX('02_SecurityAccess'!$B$4:$B$11,COLUMN('02_SecurityAccess'!F4)-1)</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="39">
+      <c r="Q4" s="52">
         <f>INDEX('02_SecurityAccess'!$B$4:$B$11,COLUMN('02_SecurityAccess'!G4)-1)</f>
         <v>0</v>
       </c>
-      <c r="R4" s="39">
+      <c r="R4" s="52">
         <f>INDEX('02_SecurityAccess'!$B$4:$B$11,COLUMN('02_SecurityAccess'!H4)-1)</f>
         <v>0</v>
       </c>
-      <c r="S4" s="53">
+      <c r="S4" s="52">
         <f>INDEX('02_SecurityAccess'!$B$4:$B$11,COLUMN('02_SecurityAccess'!I4)-1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:19" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="T4" s="75"/>
+    </row>
+    <row r="5" spans="2:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -4249,35 +5527,36 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
-      <c r="S5" s="9"/>
-    </row>
-    <row r="6" spans="2:19" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="S5" s="8"/>
+      <c r="T5" s="9"/>
+    </row>
+    <row r="6" spans="2:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="D6" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -4285,35 +5564,36 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
-      <c r="S6" s="9"/>
-    </row>
-    <row r="7" spans="2:19" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="S6" s="8"/>
+      <c r="T6" s="9"/>
+    </row>
+    <row r="7" spans="2:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -4321,21 +5601,22 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
-      <c r="S7" s="9"/>
-    </row>
-    <row r="8" spans="2:19" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="S7" s="8"/>
+      <c r="T7" s="9"/>
+    </row>
+    <row r="8" spans="2:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -4353,9 +5634,10 @@
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
-      <c r="S8" s="9"/>
-    </row>
-    <row r="9" spans="2:19" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="S8" s="8"/>
+      <c r="T8" s="9"/>
+    </row>
+    <row r="9" spans="2:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -4373,9 +5655,10 @@
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
-      <c r="S9" s="9"/>
-    </row>
-    <row r="10" spans="2:19" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="S9" s="8"/>
+      <c r="T9" s="9"/>
+    </row>
+    <row r="10" spans="2:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -4393,9 +5676,10 @@
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
-      <c r="S10" s="9"/>
-    </row>
-    <row r="11" spans="2:19" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="S10" s="8"/>
+      <c r="T10" s="9"/>
+    </row>
+    <row r="11" spans="2:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -4413,31 +5697,34 @@
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
-      <c r="S11" s="9"/>
-    </row>
-    <row r="12" spans="2:19" ht="21" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="42"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="9"/>
+    </row>
+    <row r="12" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B2:S2"/>
+  <mergeCells count="6">
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="B2:T2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:K3"/>
@@ -4445,7 +5732,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:S12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:S12 T5:T12">
       <formula1>"Support,NotSupport"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4453,12 +5740,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S12"/>
+  <dimension ref="B1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4472,143 +5759,149 @@
     <col min="7" max="11" width="3.125" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="13.875" bestFit="1" customWidth="1"/>
     <col min="15" max="19" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:19" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="68" t="str">
+    <row r="1" spans="2:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:20" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="65" t="str">
         <f>'03_DiagnosticServicesList'!B7&amp;" Sub Function of Ecu Support"</f>
         <v>Clear Diagnostic Information Sub Function of Ecu Support</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="70"/>
-    </row>
-    <row r="3" spans="2:19" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="74" t="s">
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="67"/>
+    </row>
+    <row r="3" spans="2:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="72"/>
-    </row>
-    <row r="4" spans="2:19" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="73"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="39" t="str">
+      <c r="D3" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="75" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="52" t="str">
         <f>INDEX('01_DiagnosticSession'!$B$4:$B$11,COLUMN('01_DiagnosticSession'!B3)-1)</f>
         <v>DefaultSession</v>
       </c>
-      <c r="E4" s="39" t="str">
+      <c r="E4" s="52" t="str">
         <f>INDEX('01_DiagnosticSession'!$B$4:$B$11,COLUMN('01_DiagnosticSession'!C3)-1)</f>
         <v>ProgrammingSession</v>
       </c>
-      <c r="F4" s="39" t="str">
+      <c r="F4" s="52" t="str">
         <f>INDEX('01_DiagnosticSession'!$B$4:$B$11,COLUMN('01_DiagnosticSession'!D3)-1)</f>
         <v>ExtendedSession</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="52">
         <f>INDEX('01_DiagnosticSession'!$B$4:$B$11,COLUMN('01_DiagnosticSession'!E3)-1)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="52">
         <f>INDEX('01_DiagnosticSession'!$B$4:$B$11,COLUMN('01_DiagnosticSession'!F3)-1)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="39">
+      <c r="I4" s="52">
         <f>INDEX('01_DiagnosticSession'!$B$4:$B$11,COLUMN('01_DiagnosticSession'!G3)-1)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J4" s="52">
         <f>INDEX('01_DiagnosticSession'!$B$4:$B$11,COLUMN('01_DiagnosticSession'!H3)-1)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="39">
+      <c r="K4" s="52">
         <f>INDEX('01_DiagnosticSession'!$B$4:$B$11,COLUMN('01_DiagnosticSession'!I3)-1)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="39" t="str">
+      <c r="L4" s="52" t="str">
         <f>INDEX('02_SecurityAccess'!$B$4:$B$11,COLUMN('02_SecurityAccess'!B4)-1)</f>
         <v>SA_Level1</v>
       </c>
-      <c r="M4" s="39" t="str">
+      <c r="M4" s="52" t="str">
         <f>INDEX('02_SecurityAccess'!$B$4:$B$11,COLUMN('02_SecurityAccess'!C4)-1)</f>
         <v>SA_Level2</v>
       </c>
-      <c r="N4" s="39" t="str">
+      <c r="N4" s="52" t="str">
         <f>INDEX('02_SecurityAccess'!$B$4:$B$11,COLUMN('02_SecurityAccess'!D4)-1)</f>
         <v>SA_Level3</v>
       </c>
-      <c r="O4" s="39">
+      <c r="O4" s="52">
         <f>INDEX('02_SecurityAccess'!$B$4:$B$11,COLUMN('02_SecurityAccess'!E4)-1)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="39">
+      <c r="P4" s="52">
         <f>INDEX('02_SecurityAccess'!$B$4:$B$11,COLUMN('02_SecurityAccess'!F4)-1)</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="39">
+      <c r="Q4" s="52">
         <f>INDEX('02_SecurityAccess'!$B$4:$B$11,COLUMN('02_SecurityAccess'!G4)-1)</f>
         <v>0</v>
       </c>
-      <c r="R4" s="39">
+      <c r="R4" s="52">
         <f>INDEX('02_SecurityAccess'!$B$4:$B$11,COLUMN('02_SecurityAccess'!H4)-1)</f>
         <v>0</v>
       </c>
-      <c r="S4" s="53">
+      <c r="S4" s="52">
         <f>INDEX('02_SecurityAccess'!$B$4:$B$11,COLUMN('02_SecurityAccess'!I4)-1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:19" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="T4" s="75"/>
+    </row>
+    <row r="5" spans="2:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -4616,31 +5909,32 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
-      <c r="S5" s="9"/>
-    </row>
-    <row r="6" spans="2:19" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="S5" s="8"/>
+      <c r="T5" s="9"/>
+    </row>
+    <row r="6" spans="2:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -4648,31 +5942,32 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
-      <c r="S6" s="9"/>
-    </row>
-    <row r="7" spans="2:19" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="S6" s="8"/>
+      <c r="T6" s="9"/>
+    </row>
+    <row r="7" spans="2:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -4680,21 +5975,22 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
-      <c r="S7" s="9"/>
-    </row>
-    <row r="8" spans="2:19" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="S7" s="8"/>
+      <c r="T7" s="9"/>
+    </row>
+    <row r="8" spans="2:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -4712,9 +6008,10 @@
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
-      <c r="S8" s="9"/>
-    </row>
-    <row r="9" spans="2:19" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="S8" s="8"/>
+      <c r="T8" s="9"/>
+    </row>
+    <row r="9" spans="2:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -4732,9 +6029,10 @@
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
-      <c r="S9" s="9"/>
-    </row>
-    <row r="10" spans="2:19" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="S9" s="8"/>
+      <c r="T9" s="9"/>
+    </row>
+    <row r="10" spans="2:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -4752,9 +6050,10 @@
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
-      <c r="S10" s="9"/>
-    </row>
-    <row r="11" spans="2:19" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="S10" s="8"/>
+      <c r="T10" s="9"/>
+    </row>
+    <row r="11" spans="2:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -4772,31 +6071,34 @@
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
-      <c r="S11" s="9"/>
-    </row>
-    <row r="12" spans="2:19" ht="21" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="42"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="9"/>
+    </row>
+    <row r="12" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B2:S2"/>
+  <mergeCells count="6">
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="B2:T2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:K3"/>
@@ -4804,10 +6106,11 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:S12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:S12 T5:T12">
       <formula1>"Support,NotSupport"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/01_Documents/04_ConfigurationTools/DiagnosticStack_ConfigurationTools.xlsx
+++ b/01_Documents/04_ConfigurationTools/DiagnosticStack_ConfigurationTools.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="831" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="831" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="00_Cover" sheetId="5" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'02_SecurityAccess'!$A$1:$F$12</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="91">
   <si>
     <t>DefaultSession</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,14 +337,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0xFFFFFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All Group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P2*Server_max
 (Resolution:1ms)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -389,6 +382,67 @@
 2.add Sheet 00_ChanageLog
 3.Modify 00_Cover:
   ChanageLog form modified to ReleaseNote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mingfen XIAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Modified 06_DiagnosticService_0x14 sheet:add note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubFunction Identifier(Hex)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(U)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(B)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(C)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(P)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note:
+1.The service not support sub function.
+2.The table SubFunctionIdentifier(Hex) column value not indication the services SubFunctionIdentifier.Its means:
+  Emission-related System(E)   bit0
+  Powertrain(P)                bit1
+  Chassis(C)                   bit2
+  Body(B)                      bit3
+  Network(U)                   bit4
+  All Group(A)                 bit5
+  Each DTCs(O)                 bit6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(O)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(E)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,7 +453,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,8 +571,17 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -531,8 +594,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -753,6 +822,204 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -762,7 +1029,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -922,6 +1189,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -948,6 +1260,18 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -979,40 +1303,55 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1899,56 +2238,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
     </row>
     <row r="3" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
     </row>
     <row r="4" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
     </row>
     <row r="5" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
@@ -1968,15 +2307,15 @@
       <c r="C7" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="59"/>
+      <c r="D7" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="74"/>
       <c r="F7" s="33" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H7" s="18"/>
     </row>
@@ -1984,11 +2323,11 @@
       <c r="A8" s="18"/>
       <c r="B8" s="34"/>
       <c r="C8" s="16"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="35"/>
       <c r="G8" s="35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H8" s="18"/>
     </row>
@@ -1996,8 +2335,8 @@
       <c r="A9" s="18"/>
       <c r="B9" s="34"/>
       <c r="C9" s="16"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="57"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72"/>
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
       <c r="H9" s="18"/>
@@ -2006,8 +2345,8 @@
       <c r="A10" s="18"/>
       <c r="B10" s="34"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="72"/>
       <c r="F10" s="35"/>
       <c r="G10" s="35"/>
       <c r="H10" s="18"/>
@@ -2016,8 +2355,8 @@
       <c r="A11" s="18"/>
       <c r="B11" s="34"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="72"/>
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
       <c r="H11" s="18"/>
@@ -2026,8 +2365,8 @@
       <c r="A12" s="18"/>
       <c r="B12" s="34"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="57"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="72"/>
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
       <c r="H12" s="18"/>
@@ -2036,8 +2375,8 @@
       <c r="A13" s="18"/>
       <c r="B13" s="34"/>
       <c r="C13" s="16"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="57"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="35"/>
       <c r="G13" s="35"/>
       <c r="H13" s="18"/>
@@ -2046,8 +2385,8 @@
       <c r="A14" s="18"/>
       <c r="B14" s="34"/>
       <c r="C14" s="16"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="72"/>
       <c r="F14" s="35"/>
       <c r="G14" s="35"/>
       <c r="H14" s="18"/>
@@ -2056,8 +2395,8 @@
       <c r="A15" s="18"/>
       <c r="B15" s="34"/>
       <c r="C15" s="16"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="57"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="72"/>
       <c r="F15" s="35"/>
       <c r="G15" s="35"/>
       <c r="H15" s="18"/>
@@ -2066,8 +2405,8 @@
       <c r="A16" s="18"/>
       <c r="B16" s="34"/>
       <c r="C16" s="16"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="57"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="72"/>
       <c r="F16" s="35"/>
       <c r="G16" s="35"/>
       <c r="H16" s="18"/>
@@ -2076,8 +2415,8 @@
       <c r="A17" s="18"/>
       <c r="B17" s="34"/>
       <c r="C17" s="16"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="57"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="72"/>
       <c r="F17" s="35"/>
       <c r="G17" s="35"/>
       <c r="H17" s="18"/>
@@ -2086,8 +2425,8 @@
       <c r="A18" s="18"/>
       <c r="B18" s="34"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="57"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="72"/>
       <c r="F18" s="35"/>
       <c r="G18" s="35"/>
       <c r="H18" s="18"/>
@@ -2096,8 +2435,8 @@
       <c r="A19" s="18"/>
       <c r="B19" s="34"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="57"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="72"/>
       <c r="F19" s="35"/>
       <c r="G19" s="35"/>
       <c r="H19" s="18"/>
@@ -2106,8 +2445,8 @@
       <c r="A20" s="18"/>
       <c r="B20" s="34"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="72"/>
       <c r="F20" s="35"/>
       <c r="G20" s="35"/>
       <c r="H20" s="18"/>
@@ -2116,8 +2455,8 @@
       <c r="A21" s="18"/>
       <c r="B21" s="34"/>
       <c r="C21" s="16"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="57"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="72"/>
       <c r="F21" s="35"/>
       <c r="G21" s="35"/>
       <c r="H21" s="18"/>
@@ -2126,8 +2465,8 @@
       <c r="A22" s="18"/>
       <c r="B22" s="34"/>
       <c r="C22" s="16"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="72"/>
       <c r="F22" s="35"/>
       <c r="G22" s="35"/>
       <c r="H22" s="18"/>
@@ -2136,8 +2475,8 @@
       <c r="A23" s="18"/>
       <c r="B23" s="34"/>
       <c r="C23" s="16"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="72"/>
       <c r="F23" s="35"/>
       <c r="G23" s="35"/>
       <c r="H23" s="18"/>
@@ -2146,8 +2485,8 @@
       <c r="A24" s="18"/>
       <c r="B24" s="34"/>
       <c r="C24" s="16"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="57"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="72"/>
       <c r="F24" s="35"/>
       <c r="G24" s="35"/>
       <c r="H24" s="18"/>
@@ -2156,8 +2495,8 @@
       <c r="A25" s="18"/>
       <c r="B25" s="36"/>
       <c r="C25" s="37"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="61"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="76"/>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="18"/>
@@ -2173,26 +2512,26 @@
       <c r="H26" s="20"/>
     </row>
     <row r="27" spans="1:8" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
     </row>
     <row r="28" spans="1:8" s="21" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="55"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
     </row>
     <row r="29" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="22"/>
@@ -3196,41 +3535,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E14"/>
+    <sheetView view="pageBreakPreview" zoomScale="190" zoomScaleNormal="160" zoomScaleSheetLayoutView="190" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="3" max="3" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="72.875" customWidth="1"/>
-    <col min="6" max="6" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="1" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B2" s="78" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="80"/>
-    </row>
-    <row r="3" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="81" t="s">
+      <c r="B2" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="79"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B3" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="82" t="s">
+      <c r="D3" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="80"/>
+      <c r="F3" s="60" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3241,916 +3581,924 @@
       <c r="C4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="57"/>
+      <c r="E4" s="72"/>
       <c r="F4" s="35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="72"/>
+      <c r="F5" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="56" t="s">
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="35" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="34"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="35"/>
+      <c r="D6" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="72"/>
+      <c r="F6" s="35" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B7" s="34"/>
       <c r="C7" s="16"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="72"/>
       <c r="F7" s="35"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B8" s="34"/>
       <c r="C8" s="16"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="35"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B9" s="34"/>
       <c r="C9" s="16"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="57"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72"/>
       <c r="F9" s="35"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B10" s="34"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="72"/>
       <c r="F10" s="35"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B11" s="34"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="72"/>
       <c r="F11" s="35"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B12" s="34"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="57"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="72"/>
       <c r="F12" s="35"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B13" s="34"/>
       <c r="C13" s="16"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="57"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="35"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B14" s="34"/>
       <c r="C14" s="16"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="72"/>
       <c r="F14" s="35"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B15" s="34"/>
       <c r="C15" s="16"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="57"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="72"/>
       <c r="F15" s="35"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B16" s="34"/>
       <c r="C16" s="16"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="57"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="72"/>
       <c r="F16" s="35"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="34"/>
       <c r="C17" s="16"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="57"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="72"/>
       <c r="F17" s="35"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="34"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="57"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="72"/>
       <c r="F18" s="35"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="34"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="57"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="72"/>
       <c r="F19" s="35"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" s="34"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="72"/>
       <c r="F20" s="35"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="34"/>
       <c r="C21" s="16"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="57"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="72"/>
       <c r="F21" s="35"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" s="34"/>
       <c r="C22" s="16"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="72"/>
       <c r="F22" s="35"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="34"/>
       <c r="C23" s="16"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="72"/>
       <c r="F23" s="35"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" s="34"/>
       <c r="C24" s="16"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="57"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="72"/>
       <c r="F24" s="35"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="34"/>
       <c r="C25" s="16"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="57"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="72"/>
       <c r="F25" s="35"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="34"/>
       <c r="C26" s="16"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="57"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="72"/>
       <c r="F26" s="35"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="34"/>
       <c r="C27" s="16"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="72"/>
       <c r="F27" s="35"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="34"/>
       <c r="C28" s="16"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="57"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="72"/>
       <c r="F28" s="35"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="34"/>
       <c r="C29" s="16"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="57"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="72"/>
       <c r="F29" s="35"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="34"/>
       <c r="C30" s="16"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="57"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="72"/>
       <c r="F30" s="35"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="34"/>
       <c r="C31" s="16"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="57"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="72"/>
       <c r="F31" s="35"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="34"/>
       <c r="C32" s="16"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="57"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="72"/>
       <c r="F32" s="35"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" s="34"/>
       <c r="C33" s="16"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="57"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="72"/>
       <c r="F33" s="35"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B34" s="34"/>
       <c r="C34" s="16"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="57"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="72"/>
       <c r="F34" s="35"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35" s="34"/>
       <c r="C35" s="16"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="57"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="72"/>
       <c r="F35" s="35"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B36" s="34"/>
       <c r="C36" s="16"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="57"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="72"/>
       <c r="F36" s="35"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B37" s="34"/>
       <c r="C37" s="16"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="57"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="72"/>
       <c r="F37" s="35"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B38" s="34"/>
       <c r="C38" s="16"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="57"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="72"/>
       <c r="F38" s="35"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B39" s="34"/>
       <c r="C39" s="16"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="57"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="72"/>
       <c r="F39" s="35"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B40" s="34"/>
       <c r="C40" s="16"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="57"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="72"/>
       <c r="F40" s="35"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B41" s="34"/>
       <c r="C41" s="16"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="57"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="72"/>
       <c r="F41" s="35"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B42" s="34"/>
       <c r="C42" s="16"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="57"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="72"/>
       <c r="F42" s="35"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B43" s="34"/>
       <c r="C43" s="16"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="57"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="72"/>
       <c r="F43" s="35"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B44" s="34"/>
       <c r="C44" s="16"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="57"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="72"/>
       <c r="F44" s="35"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B45" s="34"/>
       <c r="C45" s="16"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="57"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="72"/>
       <c r="F45" s="35"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B46" s="34"/>
       <c r="C46" s="16"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="57"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="72"/>
       <c r="F46" s="35"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B47" s="34"/>
       <c r="C47" s="16"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="57"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="72"/>
       <c r="F47" s="35"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B48" s="34"/>
       <c r="C48" s="16"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="57"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="72"/>
       <c r="F48" s="35"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B49" s="34"/>
       <c r="C49" s="16"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="57"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="72"/>
       <c r="F49" s="35"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B50" s="34"/>
       <c r="C50" s="16"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="57"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="72"/>
       <c r="F50" s="35"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="34"/>
       <c r="C51" s="16"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="57"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="72"/>
       <c r="F51" s="35"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B52" s="34"/>
       <c r="C52" s="16"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="57"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="72"/>
       <c r="F52" s="35"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B53" s="34"/>
       <c r="C53" s="16"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="57"/>
+      <c r="D53" s="71"/>
+      <c r="E53" s="72"/>
       <c r="F53" s="35"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B54" s="34"/>
       <c r="C54" s="16"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="57"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="72"/>
       <c r="F54" s="35"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B55" s="34"/>
       <c r="C55" s="16"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="57"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="72"/>
       <c r="F55" s="35"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B56" s="34"/>
       <c r="C56" s="16"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="57"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="72"/>
       <c r="F56" s="35"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B57" s="34"/>
       <c r="C57" s="16"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="57"/>
+      <c r="D57" s="71"/>
+      <c r="E57" s="72"/>
       <c r="F57" s="35"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B58" s="34"/>
       <c r="C58" s="16"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="57"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="72"/>
       <c r="F58" s="35"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B59" s="34"/>
       <c r="C59" s="16"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="57"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="72"/>
       <c r="F59" s="35"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B60" s="34"/>
       <c r="C60" s="16"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="57"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="72"/>
       <c r="F60" s="35"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B61" s="34"/>
       <c r="C61" s="16"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="57"/>
+      <c r="D61" s="71"/>
+      <c r="E61" s="72"/>
       <c r="F61" s="35"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B62" s="34"/>
       <c r="C62" s="16"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="57"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="72"/>
       <c r="F62" s="35"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B63" s="34"/>
       <c r="C63" s="16"/>
-      <c r="D63" s="56"/>
-      <c r="E63" s="57"/>
+      <c r="D63" s="71"/>
+      <c r="E63" s="72"/>
       <c r="F63" s="35"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B64" s="34"/>
       <c r="C64" s="16"/>
-      <c r="D64" s="56"/>
-      <c r="E64" s="57"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="72"/>
       <c r="F64" s="35"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B65" s="34"/>
       <c r="C65" s="16"/>
-      <c r="D65" s="56"/>
-      <c r="E65" s="57"/>
+      <c r="D65" s="71"/>
+      <c r="E65" s="72"/>
       <c r="F65" s="35"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B66" s="34"/>
       <c r="C66" s="16"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="57"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="72"/>
       <c r="F66" s="35"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B67" s="34"/>
       <c r="C67" s="16"/>
-      <c r="D67" s="56"/>
-      <c r="E67" s="57"/>
+      <c r="D67" s="71"/>
+      <c r="E67" s="72"/>
       <c r="F67" s="35"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B68" s="34"/>
       <c r="C68" s="16"/>
-      <c r="D68" s="56"/>
-      <c r="E68" s="57"/>
+      <c r="D68" s="71"/>
+      <c r="E68" s="72"/>
       <c r="F68" s="35"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B69" s="34"/>
       <c r="C69" s="16"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="57"/>
+      <c r="D69" s="71"/>
+      <c r="E69" s="72"/>
       <c r="F69" s="35"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B70" s="34"/>
       <c r="C70" s="16"/>
-      <c r="D70" s="56"/>
-      <c r="E70" s="57"/>
+      <c r="D70" s="71"/>
+      <c r="E70" s="72"/>
       <c r="F70" s="35"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B71" s="34"/>
       <c r="C71" s="16"/>
-      <c r="D71" s="56"/>
-      <c r="E71" s="57"/>
+      <c r="D71" s="71"/>
+      <c r="E71" s="72"/>
       <c r="F71" s="35"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B72" s="34"/>
       <c r="C72" s="16"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="57"/>
+      <c r="D72" s="71"/>
+      <c r="E72" s="72"/>
       <c r="F72" s="35"/>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B73" s="34"/>
       <c r="C73" s="16"/>
-      <c r="D73" s="56"/>
-      <c r="E73" s="57"/>
+      <c r="D73" s="71"/>
+      <c r="E73" s="72"/>
       <c r="F73" s="35"/>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B74" s="34"/>
       <c r="C74" s="16"/>
-      <c r="D74" s="56"/>
-      <c r="E74" s="57"/>
+      <c r="D74" s="71"/>
+      <c r="E74" s="72"/>
       <c r="F74" s="35"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B75" s="34"/>
       <c r="C75" s="16"/>
-      <c r="D75" s="56"/>
-      <c r="E75" s="57"/>
+      <c r="D75" s="71"/>
+      <c r="E75" s="72"/>
       <c r="F75" s="35"/>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B76" s="34"/>
       <c r="C76" s="16"/>
-      <c r="D76" s="56"/>
-      <c r="E76" s="57"/>
+      <c r="D76" s="71"/>
+      <c r="E76" s="72"/>
       <c r="F76" s="35"/>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B77" s="34"/>
       <c r="C77" s="16"/>
-      <c r="D77" s="56"/>
-      <c r="E77" s="57"/>
+      <c r="D77" s="71"/>
+      <c r="E77" s="72"/>
       <c r="F77" s="35"/>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B78" s="34"/>
       <c r="C78" s="16"/>
-      <c r="D78" s="56"/>
-      <c r="E78" s="57"/>
+      <c r="D78" s="71"/>
+      <c r="E78" s="72"/>
       <c r="F78" s="35"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B79" s="34"/>
       <c r="C79" s="16"/>
-      <c r="D79" s="56"/>
-      <c r="E79" s="57"/>
+      <c r="D79" s="71"/>
+      <c r="E79" s="72"/>
       <c r="F79" s="35"/>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B80" s="34"/>
       <c r="C80" s="16"/>
-      <c r="D80" s="56"/>
-      <c r="E80" s="57"/>
+      <c r="D80" s="71"/>
+      <c r="E80" s="72"/>
       <c r="F80" s="35"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B81" s="34"/>
       <c r="C81" s="16"/>
-      <c r="D81" s="56"/>
-      <c r="E81" s="57"/>
+      <c r="D81" s="71"/>
+      <c r="E81" s="72"/>
       <c r="F81" s="35"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B82" s="34"/>
       <c r="C82" s="16"/>
-      <c r="D82" s="56"/>
-      <c r="E82" s="57"/>
+      <c r="D82" s="71"/>
+      <c r="E82" s="72"/>
       <c r="F82" s="35"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B83" s="34"/>
       <c r="C83" s="16"/>
-      <c r="D83" s="56"/>
-      <c r="E83" s="57"/>
+      <c r="D83" s="71"/>
+      <c r="E83" s="72"/>
       <c r="F83" s="35"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B84" s="34"/>
       <c r="C84" s="16"/>
-      <c r="D84" s="56"/>
-      <c r="E84" s="57"/>
+      <c r="D84" s="71"/>
+      <c r="E84" s="72"/>
       <c r="F84" s="35"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B85" s="34"/>
       <c r="C85" s="16"/>
-      <c r="D85" s="56"/>
-      <c r="E85" s="57"/>
+      <c r="D85" s="71"/>
+      <c r="E85" s="72"/>
       <c r="F85" s="35"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B86" s="34"/>
       <c r="C86" s="16"/>
-      <c r="D86" s="56"/>
-      <c r="E86" s="57"/>
+      <c r="D86" s="71"/>
+      <c r="E86" s="72"/>
       <c r="F86" s="35"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B87" s="34"/>
       <c r="C87" s="16"/>
-      <c r="D87" s="56"/>
-      <c r="E87" s="57"/>
+      <c r="D87" s="71"/>
+      <c r="E87" s="72"/>
       <c r="F87" s="35"/>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B88" s="34"/>
       <c r="C88" s="16"/>
-      <c r="D88" s="56"/>
-      <c r="E88" s="57"/>
+      <c r="D88" s="71"/>
+      <c r="E88" s="72"/>
       <c r="F88" s="35"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B89" s="34"/>
       <c r="C89" s="16"/>
-      <c r="D89" s="56"/>
-      <c r="E89" s="57"/>
+      <c r="D89" s="71"/>
+      <c r="E89" s="72"/>
       <c r="F89" s="35"/>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B90" s="34"/>
       <c r="C90" s="16"/>
-      <c r="D90" s="56"/>
-      <c r="E90" s="57"/>
+      <c r="D90" s="71"/>
+      <c r="E90" s="72"/>
       <c r="F90" s="35"/>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B91" s="34"/>
       <c r="C91" s="16"/>
-      <c r="D91" s="56"/>
-      <c r="E91" s="57"/>
+      <c r="D91" s="71"/>
+      <c r="E91" s="72"/>
       <c r="F91" s="35"/>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B92" s="34"/>
       <c r="C92" s="16"/>
-      <c r="D92" s="56"/>
-      <c r="E92" s="57"/>
+      <c r="D92" s="71"/>
+      <c r="E92" s="72"/>
       <c r="F92" s="35"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B93" s="34"/>
       <c r="C93" s="16"/>
-      <c r="D93" s="56"/>
-      <c r="E93" s="57"/>
+      <c r="D93" s="71"/>
+      <c r="E93" s="72"/>
       <c r="F93" s="35"/>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B94" s="34"/>
       <c r="C94" s="16"/>
-      <c r="D94" s="56"/>
-      <c r="E94" s="57"/>
+      <c r="D94" s="71"/>
+      <c r="E94" s="72"/>
       <c r="F94" s="35"/>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B95" s="34"/>
       <c r="C95" s="16"/>
-      <c r="D95" s="56"/>
-      <c r="E95" s="57"/>
+      <c r="D95" s="71"/>
+      <c r="E95" s="72"/>
       <c r="F95" s="35"/>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B96" s="34"/>
       <c r="C96" s="16"/>
-      <c r="D96" s="56"/>
-      <c r="E96" s="57"/>
+      <c r="D96" s="71"/>
+      <c r="E96" s="72"/>
       <c r="F96" s="35"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B97" s="34"/>
       <c r="C97" s="16"/>
-      <c r="D97" s="56"/>
-      <c r="E97" s="57"/>
+      <c r="D97" s="71"/>
+      <c r="E97" s="72"/>
       <c r="F97" s="35"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B98" s="34"/>
       <c r="C98" s="16"/>
-      <c r="D98" s="56"/>
-      <c r="E98" s="57"/>
+      <c r="D98" s="71"/>
+      <c r="E98" s="72"/>
       <c r="F98" s="35"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B99" s="34"/>
       <c r="C99" s="16"/>
-      <c r="D99" s="56"/>
-      <c r="E99" s="57"/>
+      <c r="D99" s="71"/>
+      <c r="E99" s="72"/>
       <c r="F99" s="35"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B100" s="34"/>
       <c r="C100" s="16"/>
-      <c r="D100" s="56"/>
-      <c r="E100" s="57"/>
+      <c r="D100" s="71"/>
+      <c r="E100" s="72"/>
       <c r="F100" s="35"/>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B101" s="34"/>
       <c r="C101" s="16"/>
-      <c r="D101" s="56"/>
-      <c r="E101" s="57"/>
+      <c r="D101" s="71"/>
+      <c r="E101" s="72"/>
       <c r="F101" s="35"/>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B102" s="34"/>
       <c r="C102" s="16"/>
-      <c r="D102" s="56"/>
-      <c r="E102" s="57"/>
+      <c r="D102" s="71"/>
+      <c r="E102" s="72"/>
       <c r="F102" s="35"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B103" s="34"/>
       <c r="C103" s="16"/>
-      <c r="D103" s="56"/>
-      <c r="E103" s="57"/>
+      <c r="D103" s="71"/>
+      <c r="E103" s="72"/>
       <c r="F103" s="35"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B104" s="34"/>
       <c r="C104" s="16"/>
-      <c r="D104" s="56"/>
-      <c r="E104" s="57"/>
+      <c r="D104" s="71"/>
+      <c r="E104" s="72"/>
       <c r="F104" s="35"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B105" s="34"/>
       <c r="C105" s="16"/>
-      <c r="D105" s="56"/>
-      <c r="E105" s="57"/>
+      <c r="D105" s="71"/>
+      <c r="E105" s="72"/>
       <c r="F105" s="35"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B106" s="34"/>
       <c r="C106" s="16"/>
-      <c r="D106" s="56"/>
-      <c r="E106" s="57"/>
+      <c r="D106" s="71"/>
+      <c r="E106" s="72"/>
       <c r="F106" s="35"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B107" s="34"/>
       <c r="C107" s="16"/>
-      <c r="D107" s="56"/>
-      <c r="E107" s="57"/>
+      <c r="D107" s="71"/>
+      <c r="E107" s="72"/>
       <c r="F107" s="35"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B108" s="34"/>
       <c r="C108" s="16"/>
-      <c r="D108" s="56"/>
-      <c r="E108" s="57"/>
+      <c r="D108" s="71"/>
+      <c r="E108" s="72"/>
       <c r="F108" s="35"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B109" s="34"/>
       <c r="C109" s="16"/>
-      <c r="D109" s="56"/>
-      <c r="E109" s="57"/>
+      <c r="D109" s="71"/>
+      <c r="E109" s="72"/>
       <c r="F109" s="35"/>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B110" s="34"/>
       <c r="C110" s="16"/>
-      <c r="D110" s="56"/>
-      <c r="E110" s="57"/>
+      <c r="D110" s="71"/>
+      <c r="E110" s="72"/>
       <c r="F110" s="35"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B111" s="34"/>
       <c r="C111" s="16"/>
-      <c r="D111" s="56"/>
-      <c r="E111" s="57"/>
+      <c r="D111" s="71"/>
+      <c r="E111" s="72"/>
       <c r="F111" s="35"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B112" s="34"/>
       <c r="C112" s="16"/>
-      <c r="D112" s="56"/>
-      <c r="E112" s="57"/>
+      <c r="D112" s="71"/>
+      <c r="E112" s="72"/>
       <c r="F112" s="35"/>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B113" s="34"/>
       <c r="C113" s="16"/>
-      <c r="D113" s="56"/>
-      <c r="E113" s="57"/>
+      <c r="D113" s="71"/>
+      <c r="E113" s="72"/>
       <c r="F113" s="35"/>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B114" s="34"/>
       <c r="C114" s="16"/>
-      <c r="D114" s="56"/>
-      <c r="E114" s="57"/>
+      <c r="D114" s="71"/>
+      <c r="E114" s="72"/>
       <c r="F114" s="35"/>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B115" s="34"/>
       <c r="C115" s="16"/>
-      <c r="D115" s="56"/>
-      <c r="E115" s="57"/>
+      <c r="D115" s="71"/>
+      <c r="E115" s="72"/>
       <c r="F115" s="35"/>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B116" s="34"/>
       <c r="C116" s="16"/>
-      <c r="D116" s="56"/>
-      <c r="E116" s="57"/>
+      <c r="D116" s="71"/>
+      <c r="E116" s="72"/>
       <c r="F116" s="35"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B117" s="34"/>
       <c r="C117" s="16"/>
-      <c r="D117" s="56"/>
-      <c r="E117" s="57"/>
+      <c r="D117" s="71"/>
+      <c r="E117" s="72"/>
       <c r="F117" s="35"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B118" s="34"/>
       <c r="C118" s="16"/>
-      <c r="D118" s="56"/>
-      <c r="E118" s="57"/>
+      <c r="D118" s="71"/>
+      <c r="E118" s="72"/>
       <c r="F118" s="35"/>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B119" s="34"/>
       <c r="C119" s="16"/>
-      <c r="D119" s="56"/>
-      <c r="E119" s="57"/>
+      <c r="D119" s="71"/>
+      <c r="E119" s="72"/>
       <c r="F119" s="35"/>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B120" s="34"/>
       <c r="C120" s="16"/>
-      <c r="D120" s="56"/>
-      <c r="E120" s="57"/>
+      <c r="D120" s="71"/>
+      <c r="E120" s="72"/>
       <c r="F120" s="35"/>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B121" s="3"/>
       <c r="C121" s="1"/>
-      <c r="D121" s="56"/>
-      <c r="E121" s="57"/>
+      <c r="D121" s="71"/>
+      <c r="E121" s="72"/>
       <c r="F121" s="2"/>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B122" s="3"/>
       <c r="C122" s="1"/>
-      <c r="D122" s="56"/>
-      <c r="E122" s="57"/>
+      <c r="D122" s="71"/>
+      <c r="E122" s="72"/>
       <c r="F122" s="2"/>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B123" s="3"/>
       <c r="C123" s="1"/>
-      <c r="D123" s="56"/>
-      <c r="E123" s="57"/>
+      <c r="D123" s="71"/>
+      <c r="E123" s="72"/>
       <c r="F123" s="2"/>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B124" s="3"/>
       <c r="C124" s="1"/>
-      <c r="D124" s="56"/>
-      <c r="E124" s="57"/>
+      <c r="D124" s="71"/>
+      <c r="E124" s="72"/>
       <c r="F124" s="2"/>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B125" s="3"/>
       <c r="C125" s="1"/>
-      <c r="D125" s="56"/>
-      <c r="E125" s="57"/>
+      <c r="D125" s="71"/>
+      <c r="E125" s="72"/>
       <c r="F125" s="2"/>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B126" s="3"/>
       <c r="C126" s="1"/>
-      <c r="D126" s="56"/>
-      <c r="E126" s="57"/>
+      <c r="D126" s="71"/>
+      <c r="E126" s="72"/>
       <c r="F126" s="2"/>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B127" s="3"/>
       <c r="C127" s="1"/>
-      <c r="D127" s="56"/>
-      <c r="E127" s="57"/>
+      <c r="D127" s="71"/>
+      <c r="E127" s="72"/>
       <c r="F127" s="2"/>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B128" s="3"/>
       <c r="C128" s="1"/>
-      <c r="D128" s="56"/>
-      <c r="E128" s="57"/>
+      <c r="D128" s="71"/>
+      <c r="E128" s="72"/>
       <c r="F128" s="2"/>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B129" s="3"/>
       <c r="C129" s="1"/>
-      <c r="D129" s="56"/>
-      <c r="E129" s="57"/>
+      <c r="D129" s="71"/>
+      <c r="E129" s="72"/>
       <c r="F129" s="2"/>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B130" s="3"/>
       <c r="C130" s="1"/>
-      <c r="D130" s="56"/>
-      <c r="E130" s="57"/>
+      <c r="D130" s="71"/>
+      <c r="E130" s="72"/>
       <c r="F130" s="2"/>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B131" s="3"/>
       <c r="C131" s="1"/>
-      <c r="D131" s="56"/>
-      <c r="E131" s="57"/>
+      <c r="D131" s="71"/>
+      <c r="E131" s="72"/>
       <c r="F131" s="2"/>
     </row>
     <row r="132" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B132" s="4"/>
       <c r="C132" s="5"/>
-      <c r="D132" s="60"/>
-      <c r="E132" s="61"/>
+      <c r="D132" s="75"/>
+      <c r="E132" s="76"/>
       <c r="F132" s="6"/>
     </row>
   </sheetData>
@@ -4263,7 +4611,6 @@
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D20:E20"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
@@ -4272,6 +4619,7 @@
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
@@ -4285,10 +4633,11 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D20:E20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4313,12 +4662,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:5" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
     </row>
     <row r="3" spans="2:5" ht="60.75" x14ac:dyDescent="0.15">
       <c r="B3" s="43" t="s">
@@ -4331,7 +4680,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="20.25" x14ac:dyDescent="0.15">
@@ -4436,12 +4785,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:5" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
     </row>
     <row r="3" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="12" t="s">
@@ -4544,44 +4893,44 @@
   <sheetData>
     <row r="1" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="67"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
     </row>
     <row r="3" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="68"/>
-      <c r="G3" s="75" t="s">
-        <v>70</v>
+      <c r="F3" s="87"/>
+      <c r="G3" s="90" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="69"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="70"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="75"/>
+      <c r="G4" s="90"/>
     </row>
     <row r="5" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
@@ -4936,19 +5285,19 @@
       <c r="G33" s="9"/>
     </row>
     <row r="34" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="71"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
       <c r="G34" s="9"/>
     </row>
     <row r="35" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="73"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
       <c r="G35" s="41"/>
     </row>
   </sheetData>
@@ -4994,63 +5343,63 @@
   <sheetData>
     <row r="1" spans="2:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:20" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="65" t="str">
+      <c r="B2" s="84" t="str">
         <f>'03_DiagnosticServicesList'!B5&amp;" Sub Function of Ecu Support"</f>
         <v>Diagnostic Session Control Sub Function of Ecu Support</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="67"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="86"/>
     </row>
     <row r="3" spans="2:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68" t="s">
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="75" t="s">
-        <v>70</v>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="90" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="2:20" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="89"/>
       <c r="D4" s="52" t="str">
         <f>INDEX('01_DiagnosticSession'!$B$4:$B$11,COLUMN('01_DiagnosticSession'!B3)-1)</f>
         <v>DefaultSession</v>
@@ -5115,7 +5464,7 @@
         <f>INDEX('02_SecurityAccess'!$B$4:$B$11,COLUMN('02_SecurityAccess'!I4)-1)</f>
         <v>0</v>
       </c>
-      <c r="T4" s="75"/>
+      <c r="T4" s="90"/>
     </row>
     <row r="5" spans="2:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="str">
@@ -5363,7 +5712,7 @@
   <dimension ref="B1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T12" sqref="B2:T12"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5382,63 +5731,63 @@
   <sheetData>
     <row r="1" spans="2:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:20" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="65" t="str">
+      <c r="B2" s="84" t="str">
         <f>'03_DiagnosticServicesList'!B6&amp;" Sub Function of Ecu Support"</f>
         <v>ECU Reset Sub Function of Ecu Support</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="67"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="86"/>
     </row>
     <row r="3" spans="2:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68" t="s">
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="75" t="s">
-        <v>70</v>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="90" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="2:20" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="89"/>
       <c r="D4" s="52" t="str">
         <f>INDEX('01_DiagnosticSession'!$B$4:$B$11,COLUMN('01_DiagnosticSession'!B3)-1)</f>
         <v>DefaultSession</v>
@@ -5503,7 +5852,7 @@
         <f>INDEX('02_SecurityAccess'!$B$4:$B$11,COLUMN('02_SecurityAccess'!I4)-1)</f>
         <v>0</v>
       </c>
-      <c r="T4" s="75"/>
+      <c r="T4" s="90"/>
     </row>
     <row r="5" spans="2:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
@@ -5742,158 +6091,191 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T12"/>
+  <dimension ref="B1:AA9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.875" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.75" customWidth="1"/>
+    <col min="4" max="9" width="10.375" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
+    <col min="11" max="11" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="26" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:20" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="65" t="str">
+    <row r="1" spans="2:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:27" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="95" t="str">
         <f>'03_DiagnosticServicesList'!B7&amp;" Sub Function of Ecu Support"</f>
         <v>Clear Diagnostic Information Sub Function of Ecu Support</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="67"/>
-    </row>
-    <row r="3" spans="2:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="69" t="s">
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="97"/>
+    </row>
+    <row r="3" spans="2:27" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="68" t="s">
+      <c r="C3" s="104" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68" t="s">
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="75" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="2:20" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="52" t="str">
+      <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="99"/>
+      <c r="W3" s="99"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="99"/>
+      <c r="AA3" s="94" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="B4" s="88"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="101" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="101" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="101" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="53" t="str">
         <f>INDEX('01_DiagnosticSession'!$B$4:$B$11,COLUMN('01_DiagnosticSession'!B3)-1)</f>
         <v>DefaultSession</v>
       </c>
-      <c r="E4" s="52" t="str">
+      <c r="L4" s="53" t="str">
         <f>INDEX('01_DiagnosticSession'!$B$4:$B$11,COLUMN('01_DiagnosticSession'!C3)-1)</f>
         <v>ProgrammingSession</v>
       </c>
-      <c r="F4" s="52" t="str">
+      <c r="M4" s="53" t="str">
         <f>INDEX('01_DiagnosticSession'!$B$4:$B$11,COLUMN('01_DiagnosticSession'!D3)-1)</f>
         <v>ExtendedSession</v>
       </c>
-      <c r="G4" s="52">
+      <c r="N4" s="53">
         <f>INDEX('01_DiagnosticSession'!$B$4:$B$11,COLUMN('01_DiagnosticSession'!E3)-1)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="52">
+      <c r="O4" s="53">
         <f>INDEX('01_DiagnosticSession'!$B$4:$B$11,COLUMN('01_DiagnosticSession'!F3)-1)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="52">
+      <c r="P4" s="53">
         <f>INDEX('01_DiagnosticSession'!$B$4:$B$11,COLUMN('01_DiagnosticSession'!G3)-1)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="52">
+      <c r="Q4" s="53">
         <f>INDEX('01_DiagnosticSession'!$B$4:$B$11,COLUMN('01_DiagnosticSession'!H3)-1)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="52">
+      <c r="R4" s="53">
         <f>INDEX('01_DiagnosticSession'!$B$4:$B$11,COLUMN('01_DiagnosticSession'!I3)-1)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="52" t="str">
+      <c r="S4" s="53" t="str">
         <f>INDEX('02_SecurityAccess'!$B$4:$B$11,COLUMN('02_SecurityAccess'!B4)-1)</f>
         <v>SA_Level1</v>
       </c>
-      <c r="M4" s="52" t="str">
+      <c r="T4" s="53" t="str">
         <f>INDEX('02_SecurityAccess'!$B$4:$B$11,COLUMN('02_SecurityAccess'!C4)-1)</f>
         <v>SA_Level2</v>
       </c>
-      <c r="N4" s="52" t="str">
+      <c r="U4" s="53" t="str">
         <f>INDEX('02_SecurityAccess'!$B$4:$B$11,COLUMN('02_SecurityAccess'!D4)-1)</f>
         <v>SA_Level3</v>
       </c>
-      <c r="O4" s="52">
+      <c r="V4" s="53">
         <f>INDEX('02_SecurityAccess'!$B$4:$B$11,COLUMN('02_SecurityAccess'!E4)-1)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="52">
+      <c r="W4" s="53">
         <f>INDEX('02_SecurityAccess'!$B$4:$B$11,COLUMN('02_SecurityAccess'!F4)-1)</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="52">
+      <c r="X4" s="53">
         <f>INDEX('02_SecurityAccess'!$B$4:$B$11,COLUMN('02_SecurityAccess'!G4)-1)</f>
         <v>0</v>
       </c>
-      <c r="R4" s="52">
+      <c r="Y4" s="53">
         <f>INDEX('02_SecurityAccess'!$B$4:$B$11,COLUMN('02_SecurityAccess'!H4)-1)</f>
         <v>0</v>
       </c>
-      <c r="S4" s="52">
+      <c r="Z4" s="53">
         <f>INDEX('02_SecurityAccess'!$B$4:$B$11,COLUMN('02_SecurityAccess'!I4)-1)</f>
         <v>0</v>
       </c>
-      <c r="T4" s="75"/>
-    </row>
-    <row r="5" spans="2:20" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="B5" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="AA4" s="90"/>
+    </row>
+    <row r="5" spans="2:27" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
         <v>31</v>
       </c>
@@ -5903,210 +6285,175 @@
       <c r="F5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="L5" s="8" t="s">
         <v>31</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="9"/>
-    </row>
-    <row r="6" spans="2:20" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="9"/>
-    </row>
-    <row r="7" spans="2:20" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="9"/>
-    </row>
-    <row r="8" spans="2:20" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="9"/>
-    </row>
-    <row r="9" spans="2:20" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="9"/>
-    </row>
-    <row r="10" spans="2:20" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="9"/>
-    </row>
-    <row r="11" spans="2:20" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="9"/>
-    </row>
-    <row r="12" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="39"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="41"/>
+      <c r="S5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="9"/>
+    </row>
+    <row r="6" spans="2:27" ht="21" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="62"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="63"/>
+      <c r="Y6" s="63"/>
+      <c r="Z6" s="63"/>
+      <c r="AA6" s="64"/>
+    </row>
+    <row r="7" spans="2:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="65"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="66"/>
+      <c r="Z7" s="66"/>
+      <c r="AA7" s="67"/>
+    </row>
+    <row r="8" spans="2:27" ht="201" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="92"/>
+      <c r="W8" s="92"/>
+      <c r="X8" s="92"/>
+      <c r="Y8" s="92"/>
+      <c r="Z8" s="92"/>
+      <c r="AA8" s="93"/>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="61"/>
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="61"/>
+      <c r="AA9" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="B2:T2"/>
+  <mergeCells count="7">
+    <mergeCell ref="B8:AA8"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="B2:AA2"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="L3:S3"/>
+    <mergeCell ref="K3:R3"/>
+    <mergeCell ref="S3:Z3"/>
+    <mergeCell ref="C3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:S12 T5:T12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:AA6 C5:J5">
       <formula1>"Support,NotSupport"</formula1>
     </dataValidation>
   </dataValidations>
